--- a/segmented_time_series.xlsx
+++ b/segmented_time_series.xlsx
@@ -562,10 +562,10 @@
         <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="J2" t="n">
         <v>0.0110319874178</v>
@@ -595,7 +595,7 @@
         <v>3.74536020228e-06</v>
       </c>
       <c r="S2" t="n">
-        <v>3.14086987701e-06</v>
+        <v>2.83862471437e-06</v>
       </c>
     </row>
     <row r="3">
@@ -733,16 +733,16 @@
         <v>111</v>
       </c>
       <c r="F5" t="n">
-        <v>150</v>
+        <v>156.6666666666667</v>
       </c>
       <c r="G5" t="n">
         <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666666</v>
       </c>
       <c r="J5" t="n">
         <v>0.0110319874178</v>
@@ -766,13 +766,13 @@
         <v>7.88706555417</v>
       </c>
       <c r="Q5" t="n">
-        <v>7.2290857589e-07</v>
+        <v>7.045655016083333e-07</v>
       </c>
       <c r="R5" t="n">
-        <v>3.74536020228e-06</v>
+        <v>2.726285473738333e-06</v>
       </c>
       <c r="S5" t="n">
-        <v>1.32739890117e-06</v>
+        <v>1.314457603851e-06</v>
       </c>
     </row>
     <row r="6">
@@ -792,16 +792,16 @@
         <v>111</v>
       </c>
       <c r="F6" t="n">
-        <v>170</v>
+        <v>163.3333333333333</v>
       </c>
       <c r="G6" t="n">
         <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -825,13 +825,13 @@
         <v>7.19217271273</v>
       </c>
       <c r="Q6" t="n">
-        <v>6.67879353045e-07</v>
+        <v>6.862224273266666e-07</v>
       </c>
       <c r="R6" t="n">
-        <v>6.88136016655e-07</v>
+        <v>1.707210745196667e-06</v>
       </c>
       <c r="S6" t="n">
-        <v>6.84084683933e-07</v>
+        <v>8.971723121046667e-07</v>
       </c>
     </row>
     <row r="7">
@@ -890,7 +890,7 @@
         <v>6.88136016655e-07</v>
       </c>
       <c r="S7" t="n">
-        <v>6.800333512110001e-07</v>
+        <v>6.800333512109999e-07</v>
       </c>
     </row>
     <row r="8">
@@ -969,16 +969,16 @@
         <v>111</v>
       </c>
       <c r="F9" t="n">
-        <v>170</v>
+        <v>176.6666666666667</v>
       </c>
       <c r="G9" t="n">
         <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666666</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1002,13 +1002,13 @@
         <v>7.19217271273</v>
       </c>
       <c r="Q9" t="n">
-        <v>6.67879353045e-07</v>
+        <v>1.346591589826667e-06</v>
       </c>
       <c r="R9" t="n">
-        <v>6.88136016655e-07</v>
+        <v>5.162592486610001e-07</v>
       </c>
       <c r="S9" t="n">
-        <v>6.71930685767e-07</v>
+        <v>6.755734956910001e-07</v>
       </c>
     </row>
     <row r="10">
@@ -1028,16 +1028,16 @@
         <v>111</v>
       </c>
       <c r="F10" t="n">
-        <v>190</v>
+        <v>183.3333333333333</v>
       </c>
       <c r="G10" t="n">
         <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1061,13 +1061,13 @@
         <v>8</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.70401606339e-06</v>
+        <v>1.541868590175e-06</v>
       </c>
       <c r="R10" t="n">
-        <v>1.72505712673e-07</v>
+        <v>5.427417352186667e-07</v>
       </c>
       <c r="S10" t="n">
-        <v>6.78807782817e-07</v>
+        <v>7.709242320053333e-07</v>
       </c>
     </row>
     <row r="11">
@@ -1120,13 +1120,13 @@
         <v>7.56625137296</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.25371035409e-06</v>
+        <v>1.737145590523333e-06</v>
       </c>
       <c r="R11" t="n">
-        <v>7.67583476328e-07</v>
+        <v>5.692242217763333e-07</v>
       </c>
       <c r="S11" t="n">
-        <v>9.62034227432e-07</v>
+        <v>9.000338710763333e-07</v>
       </c>
     </row>
     <row r="12">
@@ -1185,7 +1185,7 @@
         <v>7.67583476328e-07</v>
       </c>
       <c r="S12" t="n">
-        <v>1.05925960298e-06</v>
+        <v>1.059259602984e-06</v>
       </c>
     </row>
     <row r="13">
@@ -1205,16 +1205,16 @@
         <v>111</v>
       </c>
       <c r="F13" t="n">
-        <v>190</v>
+        <v>196.6666666666667</v>
       </c>
       <c r="G13" t="n">
         <v>2</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666666</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1238,13 +1238,13 @@
         <v>7.56625137296</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.25371035409e-06</v>
+        <v>1.038686252232e-06</v>
       </c>
       <c r="R13" t="n">
-        <v>7.67583476328e-07</v>
+        <v>5.188092626880667e-07</v>
       </c>
       <c r="S13" t="n">
-        <v>1.15648497854e-06</v>
+        <v>7.848269531833334e-07</v>
       </c>
     </row>
     <row r="14">
@@ -1264,16 +1264,16 @@
         <v>111</v>
       </c>
       <c r="F14" t="n">
-        <v>210</v>
+        <v>203.3333333333333</v>
       </c>
       <c r="G14" t="n">
         <v>2</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="J14" t="n">
         <v>4.255156828e-07</v>
@@ -1297,13 +1297,13 @@
         <v>8</v>
       </c>
       <c r="Q14" t="n">
-        <v>6.08638048516e-07</v>
+        <v>8.236621503740001e-07</v>
       </c>
       <c r="R14" t="n">
-        <v>2.12608354082e-08</v>
+        <v>2.700350490481333e-07</v>
       </c>
       <c r="S14" t="n">
-        <v>1.3873627803e-07</v>
+        <v>5.171443257403333e-07</v>
       </c>
     </row>
     <row r="15">
@@ -1362,7 +1362,7 @@
         <v>2.12608354082e-08</v>
       </c>
       <c r="S15" t="n">
-        <v>2.56211720651e-07</v>
+        <v>2.562117206513333e-07</v>
       </c>
     </row>
     <row r="16">
@@ -1415,13 +1415,13 @@
         <v>8</v>
       </c>
       <c r="Q16" t="n">
-        <v>6.08638048516e-07</v>
+        <v>4.398283766083333e-07</v>
       </c>
       <c r="R16" t="n">
-        <v>2.12608354082e-08</v>
+        <v>5.380486654688e-07</v>
       </c>
       <c r="S16" t="n">
-        <v>3.73687163273e-07</v>
+        <v>3.41996991759e-07</v>
       </c>
     </row>
     <row r="17">
@@ -1441,16 +1441,16 @@
         <v>111</v>
       </c>
       <c r="F17" t="n">
-        <v>210</v>
+        <v>216.6666666666667</v>
       </c>
       <c r="G17" t="n">
         <v>2</v>
       </c>
       <c r="H17" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666666</v>
       </c>
       <c r="J17" t="n">
         <v>9.271164440609999e-07</v>
@@ -1474,13 +1474,13 @@
         <v>8</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.02209032793e-07</v>
+        <v>1.193730618279667e-06</v>
       </c>
       <c r="R17" t="n">
-        <v>1.57162432559e-06</v>
+        <v>5.847552713050666e-07</v>
       </c>
       <c r="S17" t="n">
-        <v>3.96092091353e-07</v>
+        <v>4.909842438886666e-07</v>
       </c>
     </row>
     <row r="18">
@@ -1500,16 +1500,16 @@
         <v>111</v>
       </c>
       <c r="F18" t="n">
-        <v>230</v>
+        <v>223.3333333333333</v>
       </c>
       <c r="G18" t="n">
         <v>2</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="I18" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1533,13 +1533,13 @@
         <v>7.03723064324</v>
       </c>
       <c r="Q18" t="n">
-        <v>2.87034477353e-06</v>
+        <v>1.130841332907667e-06</v>
       </c>
       <c r="R18" t="n">
-        <v>1.61380652917e-07</v>
+        <v>9.368886385123332e-07</v>
       </c>
       <c r="S18" t="n">
-        <v>7.0317347704e-07</v>
+        <v>6.379500691896666e-07</v>
       </c>
     </row>
     <row r="19">
@@ -1592,13 +1592,13 @@
         <v>8</v>
       </c>
       <c r="Q19" t="n">
-        <v>4.199701924e-07</v>
+        <v>1.236761719443333e-06</v>
       </c>
       <c r="R19" t="n">
-        <v>1.07766093703e-06</v>
+        <v>7.72234175659e-07</v>
       </c>
       <c r="S19" t="n">
-        <v>8.14584639176e-07</v>
+        <v>7.336015354886667e-07</v>
       </c>
     </row>
     <row r="20">
@@ -1657,7 +1657,7 @@
         <v>1.07766093703e-06</v>
       </c>
       <c r="S20" t="n">
-        <v>6.8304649025e-07</v>
+        <v>6.830464902503333e-07</v>
       </c>
     </row>
     <row r="21">
@@ -1677,16 +1677,16 @@
         <v>111</v>
       </c>
       <c r="F21" t="n">
-        <v>230</v>
+        <v>236.6666666666667</v>
       </c>
       <c r="G21" t="n">
         <v>2</v>
       </c>
       <c r="H21" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666666</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1710,13 +1710,13 @@
         <v>8</v>
       </c>
       <c r="Q21" t="n">
-        <v>4.199701924e-07</v>
+        <v>1.708531792486667e-06</v>
       </c>
       <c r="R21" t="n">
-        <v>1.07766093703e-06</v>
+        <v>7.939891886563332e-07</v>
       </c>
       <c r="S21" t="n">
-        <v>5.51508341325e-07</v>
+        <v>7.576674612116667e-07</v>
       </c>
     </row>
   </sheetData>
@@ -1852,16 +1852,16 @@
         <v>111</v>
       </c>
       <c r="F2" t="n">
-        <v>370</v>
+        <v>363.3333333333333</v>
       </c>
       <c r="G2" t="n">
         <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="J2" t="n">
         <v>5.2705145992e-07</v>
@@ -1885,13 +1885,13 @@
         <v>8</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.95358348477e-05</v>
+        <v>2.726413718107333e-05</v>
       </c>
       <c r="R2" t="n">
-        <v>1.01890805882e-05</v>
+        <v>9.548561843053316e-06</v>
       </c>
       <c r="S2" t="n">
-        <v>1.60584314401e-05</v>
+        <v>1.393877069363667e-05</v>
       </c>
     </row>
     <row r="3">
@@ -2003,13 +2003,13 @@
         <v>8</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.95358348477e-05</v>
+        <v>2.693547919994666e-05</v>
       </c>
       <c r="R4" t="n">
-        <v>1.01890805882e-05</v>
+        <v>3.016786100356665e-05</v>
       </c>
       <c r="S4" t="n">
-        <v>2.77971331439e-05</v>
+        <v>2.171260470876667e-05</v>
       </c>
     </row>
     <row r="5">
@@ -2029,16 +2029,16 @@
         <v>111</v>
       </c>
       <c r="F5" t="n">
-        <v>370</v>
+        <v>376.6666666666667</v>
       </c>
       <c r="G5" t="n">
         <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666666</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -2062,13 +2062,13 @@
         <v>8</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.73476790444e-06</v>
+        <v>0.0001300637503717133</v>
       </c>
       <c r="R5" t="n">
-        <v>7.01254218343e-05</v>
+        <v>4.314534934623331e-05</v>
       </c>
       <c r="S5" t="n">
-        <v>1.54128986904e-05</v>
+        <v>5.076379933343334e-05</v>
       </c>
     </row>
     <row r="6">
@@ -2088,16 +2088,16 @@
         <v>111</v>
       </c>
       <c r="F6" t="n">
-        <v>390</v>
+        <v>383.3333333333333</v>
       </c>
       <c r="G6" t="n">
         <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -2121,13 +2121,13 @@
         <v>8</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.000348920648363</v>
+        <v>0.00020470886592148</v>
       </c>
       <c r="R6" t="n">
-        <v>4.91215456162e-05</v>
+        <v>6.544342126149998e-05</v>
       </c>
       <c r="S6" t="n">
-        <v>0.000109081366166</v>
+        <v>9.204423841846667e-05</v>
       </c>
     </row>
     <row r="7">
@@ -2180,13 +2180,13 @@
         <v>8</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.000263471181497</v>
+        <v>0.000291954337119</v>
       </c>
       <c r="R7" t="n">
-        <v>7.7083296334e-05</v>
+        <v>6.776271276139998e-05</v>
       </c>
       <c r="S7" t="n">
-        <v>0.000151638450399</v>
+        <v>0.0001498786146656667</v>
       </c>
     </row>
     <row r="8">
@@ -2239,13 +2239,13 @@
         <v>8</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.000263471181497</v>
+        <v>0.0002230631941246667</v>
       </c>
       <c r="R8" t="n">
-        <v>7.7083296334e-05</v>
+        <v>0.000142675723645</v>
       </c>
       <c r="S8" t="n">
-        <v>0.000188916027432</v>
+        <v>0.000169708122996</v>
       </c>
     </row>
     <row r="9">
@@ -2265,16 +2265,16 @@
         <v>111</v>
       </c>
       <c r="F9" t="n">
-        <v>390</v>
+        <v>396.6666666666667</v>
       </c>
       <c r="G9" t="n">
         <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666666</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -2298,13 +2298,13 @@
         <v>8</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.00014224721938</v>
+        <v>0.0004883503212389999</v>
       </c>
       <c r="R9" t="n">
-        <v>0.000273860578267</v>
+        <v>0.00011733579285796</v>
       </c>
       <c r="S9" t="n">
-        <v>0.000168569891157</v>
+        <v>0.0001900677447786666</v>
       </c>
     </row>
     <row r="10">
@@ -2324,16 +2324,16 @@
         <v>111</v>
       </c>
       <c r="F10" t="n">
-        <v>410</v>
+        <v>403.3333333333333</v>
       </c>
       <c r="G10" t="n">
         <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -2357,13 +2357,13 @@
         <v>7.99999729208</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.00105933256284</v>
+        <v>0.0007115072561343334</v>
       </c>
       <c r="R10" t="n">
-        <v>1.06350397288e-06</v>
+        <v>0.00011623748632196</v>
       </c>
       <c r="S10" t="n">
-        <v>0.000212717315747</v>
+        <v>0.0002662456758043333</v>
       </c>
     </row>
     <row r="11">
@@ -2416,13 +2416,13 @@
         <v>8</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.000932941986183</v>
+        <v>0.0009425958088396666</v>
       </c>
       <c r="R11" t="n">
-        <v>7.3788376726e-05</v>
+        <v>7.801224419429332e-05</v>
       </c>
       <c r="S11" t="n">
-        <v>0.000417449820509</v>
+        <v>0.0003983829345023334</v>
       </c>
     </row>
     <row r="12">
@@ -2475,13 +2475,13 @@
         <v>7.99457830418</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.000835512877496</v>
+        <v>0.0008654999963636666</v>
       </c>
       <c r="R12" t="n">
-        <v>0.000159184851884</v>
+        <v>0.000136994223045</v>
       </c>
       <c r="S12" t="n">
-        <v>0.000564981667251</v>
+        <v>0.0005601564920646667</v>
       </c>
     </row>
     <row r="13">
@@ -2501,16 +2501,16 @@
         <v>111</v>
       </c>
       <c r="F13" t="n">
-        <v>410</v>
+        <v>416.6666666666667</v>
       </c>
       <c r="G13" t="n">
         <v>2</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666666</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -2534,13 +2534,13 @@
         <v>7.99999431748</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.000828045125412</v>
+        <v>0.001081102834252667</v>
       </c>
       <c r="R13" t="n">
-        <v>0.000178009440525</v>
+        <v>0.0001257464051402667</v>
       </c>
       <c r="S13" t="n">
-        <v>0.000698037988434</v>
+        <v>0.0005370018980213334</v>
       </c>
     </row>
     <row r="14">
@@ -2560,16 +2560,16 @@
         <v>111</v>
       </c>
       <c r="F14" t="n">
-        <v>430</v>
+        <v>423.3333333333333</v>
       </c>
       <c r="G14" t="n">
         <v>2</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="J14" t="n">
         <v>0.00649486188721</v>
@@ -2593,13 +2593,13 @@
         <v>7.99999699318</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.00157975049985</v>
+        <v>0.001329182041704</v>
       </c>
       <c r="R14" t="n">
-        <v>4.00449230118e-05</v>
+        <v>8.603309551619998e-05</v>
       </c>
       <c r="S14" t="n">
-        <v>0.000347986038379</v>
+        <v>0.0005673170601866666</v>
       </c>
     </row>
     <row r="15">
@@ -2658,7 +2658,7 @@
         <v>4.00449230118e-05</v>
       </c>
       <c r="S15" t="n">
-        <v>0.000655927153747</v>
+        <v>0.0006559271537466666</v>
       </c>
     </row>
     <row r="16">
@@ -2717,7 +2717,7 @@
         <v>4.00449230118e-05</v>
       </c>
       <c r="S16" t="n">
-        <v>0.000963868269114</v>
+        <v>0.0009638682691136665</v>
       </c>
     </row>
     <row r="17">
@@ -2737,16 +2737,16 @@
         <v>111</v>
       </c>
       <c r="F17" t="n">
-        <v>430</v>
+        <v>436.6666666666667</v>
       </c>
       <c r="G17" t="n">
         <v>2</v>
       </c>
       <c r="H17" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666666</v>
       </c>
       <c r="J17" t="n">
         <v>0.00649486188721</v>
@@ -2770,13 +2770,13 @@
         <v>7.99999699318</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.00157975049985</v>
+        <v>0.001827003255216667</v>
       </c>
       <c r="R17" t="n">
-        <v>4.00449230118e-05</v>
+        <v>2.740592506169332e-05</v>
       </c>
       <c r="S17" t="n">
-        <v>0.00127180938448</v>
+        <v>0.0009005605833709998</v>
       </c>
     </row>
     <row r="18">
@@ -2796,16 +2796,16 @@
         <v>111</v>
       </c>
       <c r="F18" t="n">
-        <v>450</v>
+        <v>443.3333333333333</v>
       </c>
       <c r="G18" t="n">
         <v>2</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="I18" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="J18" t="n">
         <v>0.009512354152219999</v>
@@ -2829,13 +2829,13 @@
         <v>8</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.00232150876595</v>
+        <v>0.001984567941333333</v>
       </c>
       <c r="R18" t="n">
-        <v>2.12792916148e-06</v>
+        <v>5.402447197109331e-05</v>
       </c>
       <c r="S18" t="n">
-        <v>0.000466004096519</v>
+        <v>0.000876910547507</v>
       </c>
     </row>
     <row r="19">
@@ -2888,13 +2888,13 @@
         <v>8</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.0020524445582</v>
+        <v>0.00214213262745</v>
       </c>
       <c r="R19" t="n">
-        <v>0.00011990056374</v>
+        <v>8.064301888049331e-05</v>
       </c>
       <c r="S19" t="n">
-        <v>0.000892918161522</v>
+        <v>0.0008794497394836666</v>
       </c>
     </row>
     <row r="20">
@@ -2947,13 +2947,13 @@
         <v>8</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.0020524445582</v>
+        <v>0.001378724520833267</v>
       </c>
       <c r="R20" t="n">
-        <v>0.00011990056374</v>
+        <v>0.00209487473107</v>
       </c>
       <c r="S20" t="n">
-        <v>0.00127942696041</v>
+        <v>0.001135445763987333</v>
       </c>
     </row>
     <row r="21">
@@ -2973,16 +2973,16 @@
         <v>111</v>
       </c>
       <c r="F21" t="n">
-        <v>450</v>
+        <v>456.6666666666667</v>
       </c>
       <c r="G21" t="n">
         <v>2</v>
       </c>
       <c r="H21" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666666</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>5.51645945965</v>
       </c>
       <c r="Q21" t="n">
-        <v>3.12844460998e-05</v>
+        <v>0.0007446088329769334</v>
       </c>
       <c r="R21" t="n">
-        <v>0.00604482306573</v>
+        <v>0.002090820967744667</v>
       </c>
       <c r="S21" t="n">
-        <v>0.00123399217003</v>
+        <v>0.0008765433494589999</v>
       </c>
     </row>
   </sheetData>
@@ -3148,16 +3148,16 @@
         <v>111</v>
       </c>
       <c r="F2" t="n">
-        <v>250</v>
+        <v>243.3333333333333</v>
       </c>
       <c r="G2" t="n">
         <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="J2" t="n">
         <v>2.98620418859e-06</v>
@@ -3181,13 +3181,13 @@
         <v>7.7958480055</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.28565499266e-06</v>
+        <v>1.92137350611e-06</v>
       </c>
       <c r="R2" t="n">
-        <v>2.26645691909e-07</v>
+        <v>1.035970242569667e-06</v>
       </c>
       <c r="S2" t="n">
-        <v>1.03844755206e-06</v>
+        <v>1.031838828651667e-06</v>
       </c>
     </row>
     <row r="3">
@@ -3240,13 +3240,13 @@
         <v>7.98962154622</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.05849533327e-06</v>
+        <v>2.134215219733333e-06</v>
       </c>
       <c r="R3" t="n">
-        <v>1.80360409877e-06</v>
+        <v>1.277951296483e-06</v>
       </c>
       <c r="S3" t="n">
-        <v>1.50556059257e-06</v>
+        <v>1.300182328033333e-06</v>
       </c>
     </row>
     <row r="4">
@@ -3299,13 +3299,13 @@
         <v>7.98962154622</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.05849533327e-06</v>
+        <v>8.457004762393333e-07</v>
       </c>
       <c r="R4" t="n">
-        <v>1.80360409877e-06</v>
+        <v>2.280367883806667e-06</v>
       </c>
       <c r="S4" t="n">
-        <v>1.35653883947e-06</v>
+        <v>1.281655710853e-06</v>
       </c>
     </row>
     <row r="5">
@@ -3325,16 +3325,16 @@
         <v>111</v>
       </c>
       <c r="F5" t="n">
-        <v>250</v>
+        <v>256.6666666666667</v>
       </c>
       <c r="G5" t="n">
         <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666666</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -3358,13 +3358,13 @@
         <v>8</v>
       </c>
       <c r="Q5" t="n">
-        <v>4.20110762178e-07</v>
+        <v>1.012901243286e-06</v>
       </c>
       <c r="R5" t="n">
-        <v>3.23389545388e-06</v>
+        <v>2.14439714648e-06</v>
       </c>
       <c r="S5" t="n">
-        <v>9.82867700519e-07</v>
+        <v>1.255993192099667e-06</v>
       </c>
     </row>
     <row r="6">
@@ -3384,16 +3384,16 @@
         <v>111</v>
       </c>
       <c r="F6" t="n">
-        <v>270</v>
+        <v>263.3333333333333</v>
       </c>
       <c r="G6" t="n">
         <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="J6" t="n">
         <v>8.75383656451e-07</v>
@@ -3417,13 +3417,13 @@
         <v>8</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.56009763441e-06</v>
+        <v>1.180102010332666e-06</v>
       </c>
       <c r="R6" t="n">
-        <v>1.39569188679e-06</v>
+        <v>2.008426409153333e-06</v>
       </c>
       <c r="S6" t="n">
-        <v>1.42857303631e-06</v>
+        <v>1.290964974223e-06</v>
       </c>
     </row>
     <row r="7">
@@ -3476,13 +3476,13 @@
         <v>8</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.56009763441e-06</v>
+        <v>1.117001649507333e-06</v>
       </c>
       <c r="R7" t="n">
-        <v>1.39569188679e-06</v>
+        <v>1.7518346175e-06</v>
       </c>
       <c r="S7" t="n">
-        <v>1.46145418584e-06</v>
+        <v>1.33805368718e-06</v>
       </c>
     </row>
     <row r="8">
@@ -3535,13 +3535,13 @@
         <v>8</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.30809679702e-07</v>
+        <v>6.739056646046667e-07</v>
       </c>
       <c r="R8" t="n">
-        <v>2.46412007892e-06</v>
+        <v>2.10797734821e-06</v>
       </c>
       <c r="S8" t="n">
-        <v>1.12413383939e-06</v>
+        <v>1.087686594925333e-06</v>
       </c>
     </row>
     <row r="9">
@@ -3561,16 +3561,16 @@
         <v>111</v>
       </c>
       <c r="F9" t="n">
-        <v>270</v>
+        <v>276.6666666666667</v>
       </c>
       <c r="G9" t="n">
         <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666666</v>
       </c>
       <c r="J9" t="n">
         <v>1.42992851082e-06</v>
@@ -3594,13 +3594,13 @@
         <v>8</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.30809679702e-07</v>
+        <v>6.879906281346667e-07</v>
       </c>
       <c r="R9" t="n">
-        <v>2.46412007892e-06</v>
+        <v>1.955844097156e-06</v>
       </c>
       <c r="S9" t="n">
-        <v>6.77471759546e-07</v>
+        <v>9.57836603612e-07</v>
       </c>
     </row>
     <row r="10">
@@ -3620,16 +3620,16 @@
         <v>111</v>
       </c>
       <c r="F10" t="n">
-        <v>290</v>
+        <v>283.3333333333333</v>
       </c>
       <c r="G10" t="n">
         <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="J10" t="n">
         <v>0.0209873824041</v>
@@ -3653,13 +3653,13 @@
         <v>7.99999338292</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.602352525e-06</v>
+        <v>6.722742439776667e-07</v>
       </c>
       <c r="R10" t="n">
-        <v>9.39292133628e-07</v>
+        <v>1.653310383602667e-06</v>
       </c>
       <c r="S10" t="n">
-        <v>1.0719042119e-06</v>
+        <v>9.189171817653334e-07</v>
       </c>
     </row>
     <row r="11">
@@ -3712,13 +3712,13 @@
         <v>7.99999509019</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.83660527231e-07</v>
+        <v>6.565578598206667e-07</v>
       </c>
       <c r="R11" t="n">
-        <v>1.55651893826e-06</v>
+        <v>1.350776670049334e-06</v>
       </c>
       <c r="S11" t="n">
-        <v>1.00737557385e-06</v>
+        <v>9.37361225798e-07</v>
       </c>
     </row>
     <row r="12">
@@ -3777,7 +3777,7 @@
         <v>1.55651893826e-06</v>
       </c>
       <c r="S12" t="n">
-        <v>7.32803891644e-07</v>
+        <v>7.328038916436666e-07</v>
       </c>
     </row>
     <row r="13">
@@ -3797,16 +3797,16 @@
         <v>111</v>
       </c>
       <c r="F13" t="n">
-        <v>290</v>
+        <v>296.6666666666667</v>
       </c>
       <c r="G13" t="n">
         <v>2</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666666</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -3830,13 +3830,13 @@
         <v>7.99999509019</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.83660527231e-07</v>
+        <v>1.771510460917333e-06</v>
       </c>
       <c r="R13" t="n">
-        <v>1.55651893826e-06</v>
+        <v>1.553427059656667e-06</v>
       </c>
       <c r="S13" t="n">
-        <v>4.58232209437e-07</v>
+        <v>1.139424269567e-06</v>
       </c>
     </row>
     <row r="14">
@@ -3856,16 +3856,16 @@
         <v>111</v>
       </c>
       <c r="F14" t="n">
-        <v>310</v>
+        <v>303.3333333333333</v>
       </c>
       <c r="G14" t="n">
         <v>2</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="J14" t="n">
         <v>1.13136683444e-06</v>
@@ -3889,13 +3889,13 @@
         <v>8</v>
       </c>
       <c r="Q14" t="n">
-        <v>4.94721032829e-06</v>
+        <v>3.359360394603667e-06</v>
       </c>
       <c r="R14" t="n">
-        <v>1.54724330245e-06</v>
+        <v>1.550335181053333e-06</v>
       </c>
       <c r="S14" t="n">
-        <v>2.22723670762e-06</v>
+        <v>1.864233009945667e-06</v>
       </c>
     </row>
     <row r="15">
@@ -3954,7 +3954,7 @@
         <v>1.54724330245e-06</v>
       </c>
       <c r="S15" t="n">
-        <v>2.90723011278e-06</v>
+        <v>2.907230112783333e-06</v>
       </c>
     </row>
     <row r="16">
@@ -4033,16 +4033,16 @@
         <v>111</v>
       </c>
       <c r="F17" t="n">
-        <v>310</v>
+        <v>316.6666666666667</v>
       </c>
       <c r="G17" t="n">
         <v>2</v>
       </c>
       <c r="H17" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666666</v>
       </c>
       <c r="J17" t="n">
         <v>1.13136683444e-06</v>
@@ -4066,13 +4066,13 @@
         <v>8</v>
       </c>
       <c r="Q17" t="n">
-        <v>4.94721032829e-06</v>
+        <v>5.409177163223334e-06</v>
       </c>
       <c r="R17" t="n">
-        <v>1.54724330245e-06</v>
+        <v>2.284175095936667e-06</v>
       </c>
       <c r="S17" t="n">
-        <v>4.26721692312e-06</v>
+        <v>4.04249785134e-06</v>
       </c>
     </row>
     <row r="18">
@@ -4092,16 +4092,16 @@
         <v>111</v>
       </c>
       <c r="F18" t="n">
-        <v>330</v>
+        <v>323.3333333333333</v>
       </c>
       <c r="G18" t="n">
         <v>2</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="I18" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -4125,13 +4125,13 @@
         <v>7.73212251421</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.33311083309e-06</v>
+        <v>5.871143998156667e-06</v>
       </c>
       <c r="R18" t="n">
-        <v>3.75803868291e-06</v>
+        <v>3.021106889423334e-06</v>
       </c>
       <c r="S18" t="n">
-        <v>4.27305311295e-06</v>
+        <v>4.442779193016666e-06</v>
       </c>
     </row>
     <row r="19">
@@ -4184,13 +4184,13 @@
         <v>7.73212251421</v>
       </c>
       <c r="Q19" t="n">
-        <v>6.33311083309e-06</v>
+        <v>4.922092957513334e-06</v>
       </c>
       <c r="R19" t="n">
-        <v>3.75803868291e-06</v>
+        <v>5.266059880020001e-06</v>
       </c>
       <c r="S19" t="n">
-        <v>4.78806754298e-06</v>
+        <v>4.54466529648e-06</v>
       </c>
     </row>
     <row r="20">
@@ -4243,13 +4243,13 @@
         <v>7.99999150235</v>
       </c>
       <c r="Q20" t="n">
-        <v>2.10005720636e-06</v>
+        <v>3.511075081936666e-06</v>
       </c>
       <c r="R20" t="n">
-        <v>8.28210227424e-06</v>
+        <v>6.774081077130001e-06</v>
       </c>
       <c r="S20" t="n">
-        <v>4.57287523351e-06</v>
+        <v>4.232469665473334e-06</v>
       </c>
     </row>
     <row r="21">
@@ -4269,16 +4269,16 @@
         <v>111</v>
       </c>
       <c r="F21" t="n">
-        <v>330</v>
+        <v>336.6666666666667</v>
       </c>
       <c r="G21" t="n">
         <v>2</v>
       </c>
       <c r="H21" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666666</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -4302,13 +4302,13 @@
         <v>7.99999150235</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.10005720636e-06</v>
+        <v>5.25966748044e-06</v>
       </c>
       <c r="R21" t="n">
-        <v>8.28210227424e-06</v>
+        <v>7.56457972133e-06</v>
       </c>
       <c r="S21" t="n">
-        <v>3.33646621993e-06</v>
+        <v>5.042915583856667e-06</v>
       </c>
     </row>
   </sheetData>
@@ -4444,16 +4444,16 @@
         <v>111</v>
       </c>
       <c r="F2" t="n">
-        <v>350</v>
+        <v>343.3333333333333</v>
       </c>
       <c r="G2" t="n">
         <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="J2" t="n">
         <v>9.781777932089999e-07</v>
@@ -4477,13 +4477,13 @@
         <v>8</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.15788880286e-05</v>
+        <v>8.41927775452e-06</v>
       </c>
       <c r="R2" t="n">
-        <v>6.12953461551e-06</v>
+        <v>6.84705716842e-06</v>
       </c>
       <c r="S2" t="n">
-        <v>7.21940529813e-06</v>
+        <v>6.288382499603333e-06</v>
       </c>
     </row>
     <row r="3">
@@ -4542,7 +4542,7 @@
         <v>6.12953461551e-06</v>
       </c>
       <c r="S3" t="n">
-        <v>8.30927598075e-06</v>
+        <v>8.309275980750002e-06</v>
       </c>
     </row>
     <row r="4">
@@ -4595,13 +4595,13 @@
         <v>8</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.15788880286e-05</v>
+        <v>7.850246264147e-06</v>
       </c>
       <c r="R4" t="n">
-        <v>6.12953461551e-06</v>
+        <v>1.946704860997333e-05</v>
       </c>
       <c r="S4" t="n">
-        <v>9.399146663370001e-06</v>
+        <v>9.083736050696666e-06</v>
       </c>
     </row>
     <row r="5">
@@ -4621,16 +4621,16 @@
         <v>111</v>
       </c>
       <c r="F5" t="n">
-        <v>350</v>
+        <v>356.6666666666667</v>
       </c>
       <c r="G5" t="n">
         <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666666</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -4654,13 +4654,13 @@
         <v>8</v>
       </c>
       <c r="Q5" t="n">
-        <v>3.92962735241e-07</v>
+        <v>8.963465878947001e-06</v>
       </c>
       <c r="R5" t="n">
-        <v>4.61420765989e-05</v>
+        <v>1.989841652078333e-05</v>
       </c>
       <c r="S5" t="n">
-        <v>9.542785507970001e-06</v>
+        <v>9.28818407476e-06</v>
       </c>
     </row>
     <row r="6">
@@ -4680,16 +4680,16 @@
         <v>111</v>
       </c>
       <c r="F6" t="n">
-        <v>370</v>
+        <v>363.3333333333333</v>
       </c>
       <c r="G6" t="n">
         <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -4713,13 +4713,13 @@
         <v>8</v>
       </c>
       <c r="Q6" t="n">
-        <v>1.4918546873e-05</v>
+        <v>1.0076685493747e-05</v>
       </c>
       <c r="R6" t="n">
-        <v>7.42363834794e-06</v>
+        <v>2.032978443159333e-05</v>
       </c>
       <c r="S6" t="n">
-        <v>8.922620052939999e-06</v>
+        <v>9.629002439603333e-06</v>
       </c>
     </row>
     <row r="7">
@@ -4778,7 +4778,7 @@
         <v>7.42363834794e-06</v>
       </c>
       <c r="S7" t="n">
-        <v>1.04216017579e-05</v>
+        <v>1.042160175794667e-05</v>
       </c>
     </row>
     <row r="8">
@@ -4837,7 +4837,7 @@
         <v>7.42363834794e-06</v>
       </c>
       <c r="S8" t="n">
-        <v>1.1920583463e-05</v>
+        <v>1.192058346296667e-05</v>
       </c>
     </row>
     <row r="9">
@@ -4857,16 +4857,16 @@
         <v>111</v>
       </c>
       <c r="F9" t="n">
-        <v>370</v>
+        <v>376.6666666666667</v>
       </c>
       <c r="G9" t="n">
         <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666666</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -4890,13 +4890,13 @@
         <v>8</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.4918546873e-05</v>
+        <v>3.29287961804e-05</v>
       </c>
       <c r="R9" t="n">
-        <v>7.42363834794e-06</v>
+        <v>2.065152426722667e-05</v>
       </c>
       <c r="S9" t="n">
-        <v>1.3419565168e-05</v>
+        <v>2.560528149156667e-05</v>
       </c>
     </row>
     <row r="10">
@@ -4916,16 +4916,16 @@
         <v>111</v>
       </c>
       <c r="F10" t="n">
-        <v>390</v>
+        <v>383.3333333333333</v>
       </c>
       <c r="G10" t="n">
         <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="J10" t="n">
         <v>0.879898655618</v>
@@ -4949,13 +4949,13 @@
         <v>2.75970887628</v>
       </c>
       <c r="Q10" t="n">
-        <v>6.89492947952e-05</v>
+        <v>5.09390454878e-05</v>
       </c>
       <c r="R10" t="n">
-        <v>4.71072961058e-05</v>
+        <v>3.387941018651333e-05</v>
       </c>
       <c r="S10" t="n">
-        <v>5.14756958437e-05</v>
+        <v>4.024645219773333e-05</v>
       </c>
     </row>
     <row r="11">
@@ -5014,7 +5014,7 @@
         <v>4.71072961058e-05</v>
       </c>
       <c r="S11" t="n">
-        <v>5.58440955815e-05</v>
+        <v>5.584409558153334e-05</v>
       </c>
     </row>
     <row r="12">
@@ -5067,13 +5067,13 @@
         <v>2.75970887628</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.89492947952e-05</v>
+        <v>5.448755071386667e-05</v>
       </c>
       <c r="R12" t="n">
-        <v>4.71072961058e-05</v>
+        <v>7.814485315220001e-05</v>
       </c>
       <c r="S12" t="n">
-        <v>6.02124953194e-05</v>
+        <v>5.48506114636e-05</v>
       </c>
     </row>
     <row r="13">
@@ -5093,16 +5093,16 @@
         <v>111</v>
       </c>
       <c r="F13" t="n">
-        <v>390</v>
+        <v>396.6666666666667</v>
       </c>
       <c r="G13" t="n">
         <v>2</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666666</v>
       </c>
       <c r="J13" t="n">
         <v>0.642437986131</v>
@@ -5126,13 +5126,13 @@
         <v>2.56325544914</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.55640625512e-05</v>
+        <v>0.0002690377589208</v>
       </c>
       <c r="R13" t="n">
-        <v>0.000140219967245</v>
+        <v>6.359706023973335e-05</v>
       </c>
       <c r="S13" t="n">
-        <v>4.84952434899e-05</v>
+        <v>8.46662855291e-05</v>
       </c>
     </row>
     <row r="14">
@@ -5152,16 +5152,16 @@
         <v>111</v>
       </c>
       <c r="F14" t="n">
-        <v>410</v>
+        <v>403.3333333333333</v>
       </c>
       <c r="G14" t="n">
         <v>2</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="J14" t="n">
         <v>0.008622361421180001</v>
@@ -5185,13 +5185,13 @@
         <v>7.99999350598</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.000712599919416</v>
+        <v>0.0004736946988400667</v>
       </c>
       <c r="R14" t="n">
-        <v>3.4639173684e-06</v>
+        <v>5.176692825043335e-05</v>
       </c>
       <c r="S14" t="n">
-        <v>0.000145291117778</v>
+        <v>0.0001579748490573</v>
       </c>
     </row>
     <row r="15">
@@ -5244,13 +5244,13 @@
         <v>8</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.000682920114553</v>
+        <v>0.0006928133828406667</v>
       </c>
       <c r="R15" t="n">
-        <v>1.16169001379e-05</v>
+        <v>8.899239214733341e-06</v>
       </c>
       <c r="S15" t="n">
-        <v>0.000280138185904</v>
+        <v>0.000279942710823</v>
       </c>
     </row>
     <row r="16">
@@ -5303,13 +5303,13 @@
         <v>8</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.000682920114553</v>
+        <v>0.0006453410721166666</v>
       </c>
       <c r="R16" t="n">
-        <v>1.16169001379e-05</v>
+        <v>9.916773919793333e-05</v>
       </c>
       <c r="S16" t="n">
-        <v>0.000414398828787</v>
+        <v>0.00040184576265</v>
       </c>
     </row>
     <row r="17">
@@ -5329,16 +5329,16 @@
         <v>111</v>
       </c>
       <c r="F17" t="n">
-        <v>410</v>
+        <v>416.6666666666667</v>
       </c>
       <c r="G17" t="n">
         <v>2</v>
       </c>
       <c r="H17" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666666</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -5362,13 +5362,13 @@
         <v>8</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.000570182987244</v>
+        <v>0.0009507465833156666</v>
       </c>
       <c r="R17" t="n">
-        <v>0.000274269417318</v>
+        <v>0.0001023603399827667</v>
       </c>
       <c r="S17" t="n">
-        <v>0.000511000273259</v>
+        <v>0.0004207273978900001</v>
       </c>
     </row>
     <row r="18">
@@ -5388,16 +5388,16 @@
         <v>111</v>
       </c>
       <c r="F18" t="n">
-        <v>430</v>
+        <v>423.3333333333333</v>
       </c>
       <c r="G18" t="n">
         <v>2</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="I18" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="J18" t="n">
         <v>0.010527060423</v>
@@ -5421,13 +5421,13 @@
         <v>8</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.00159913664815</v>
+        <v>0.001242076070494667</v>
       </c>
       <c r="R18" t="n">
-        <v>2.11947024924e-05</v>
+        <v>0.0001139555229240333</v>
       </c>
       <c r="S18" t="n">
-        <v>0.000336783091624</v>
+        <v>0.0004994627548983334</v>
       </c>
     </row>
     <row r="19">
@@ -5480,13 +5480,13 @@
         <v>7.74743422195</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.00155690857609</v>
+        <v>0.001492652093233333</v>
       </c>
       <c r="R19" t="n">
-        <v>4.64024489617e-05</v>
+        <v>0.0001414156902317</v>
       </c>
       <c r="S19" t="n">
-        <v>0.000650604899812</v>
+        <v>0.0006410648641366666</v>
       </c>
     </row>
     <row r="20">
@@ -5539,13 +5539,13 @@
         <v>8</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.00132191105546</v>
+        <v>0.0009757280118049667</v>
       </c>
       <c r="R20" t="n">
-        <v>0.000356649919241</v>
+        <v>0.001664976117044233</v>
       </c>
       <c r="S20" t="n">
-        <v>0.000935806600974</v>
+        <v>0.000847826073488</v>
       </c>
     </row>
     <row r="21">
@@ -5565,16 +5565,16 @@
         <v>111</v>
       </c>
       <c r="F21" t="n">
-        <v>430</v>
+        <v>436.6666666666667</v>
       </c>
       <c r="G21" t="n">
         <v>2</v>
       </c>
       <c r="H21" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666666</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -5598,13 +5598,13 @@
         <v>3.89125712432</v>
       </c>
       <c r="Q21" t="n">
-        <v>4.83644038649e-05</v>
+        <v>0.0011456827340583</v>
       </c>
       <c r="R21" t="n">
-        <v>0.00459187598293</v>
+        <v>0.00165252993007053</v>
       </c>
       <c r="S21" t="n">
-        <v>0.000957066719678</v>
+        <v>0.0007711596598846668</v>
       </c>
     </row>
   </sheetData>
@@ -5740,16 +5740,16 @@
         <v>111</v>
       </c>
       <c r="F2" t="n">
-        <v>450</v>
+        <v>443.3333333333333</v>
       </c>
       <c r="G2" t="n">
         <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="J2" t="n">
         <v>0.021739271923</v>
@@ -5773,13 +5773,13 @@
         <v>8</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.00206677274285</v>
+        <v>0.0013939699631883</v>
       </c>
       <c r="R2" t="n">
-        <v>9.06388804059e-06</v>
+        <v>0.001536667919670393</v>
       </c>
       <c r="S2" t="n">
-        <v>0.000420605659002</v>
+        <v>0.0007366066028809999</v>
       </c>
     </row>
     <row r="3">
@@ -5832,13 +5832,13 @@
         <v>8</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.00206677274285</v>
+        <v>0.00202932239774</v>
       </c>
       <c r="R3" t="n">
-        <v>9.06388804059e-06</v>
+        <v>5.201821059906e-05</v>
       </c>
       <c r="S3" t="n">
-        <v>0.000832147429963</v>
+        <v>0.0008268589519216667</v>
       </c>
     </row>
     <row r="4">
@@ -5891,13 +5891,13 @@
         <v>8</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.00195442170752</v>
+        <v>0.0013707341516183</v>
       </c>
       <c r="R4" t="n">
-        <v>0.000137926855716</v>
+        <v>0.001590335650552197</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0012278237668</v>
+        <v>0.001019193613977</v>
       </c>
     </row>
     <row r="5">
@@ -5917,16 +5917,16 @@
         <v>111</v>
       </c>
       <c r="F5" t="n">
-        <v>450</v>
+        <v>456.6666666666667</v>
       </c>
       <c r="G5" t="n">
         <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666666</v>
       </c>
       <c r="J5" t="n">
         <v>8.27334422082e-07</v>
@@ -5950,13 +5950,13 @@
         <v>5.33043756369</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.100800448489999e-05</v>
+        <v>0.0007310124853036334</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0046240162079</v>
+        <v>0.001623754219112</v>
       </c>
       <c r="S5" t="n">
-        <v>0.000997609645168</v>
+        <v>0.0007808035452416666</v>
       </c>
     </row>
     <row r="6">
@@ -5976,16 +5976,16 @@
         <v>111</v>
       </c>
       <c r="F6" t="n">
-        <v>470</v>
+        <v>463.3333333333333</v>
       </c>
       <c r="G6" t="n">
         <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="J6" t="n">
         <v>1.45798495915</v>
@@ -6009,13 +6009,13 @@
         <v>1.79421146887</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.000147607743906</v>
+        <v>0.0001287159500219667</v>
       </c>
       <c r="R6" t="n">
-        <v>0.00010931959372</v>
+        <v>0.001614229319708667</v>
       </c>
       <c r="S6" t="n">
-        <v>0.000116977223757</v>
+        <v>0.0004130703346996667</v>
       </c>
     </row>
     <row r="7">
@@ -6068,13 +6068,13 @@
         <v>1.79421578479</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.000147532101675</v>
+        <v>0.000147557315752</v>
       </c>
       <c r="R7" t="n">
-        <v>0.000109352157506</v>
+        <v>0.0001093413029106667</v>
       </c>
       <c r="S7" t="n">
-        <v>0.000124624135174</v>
+        <v>0.000124620494313</v>
       </c>
     </row>
     <row r="8">
@@ -6127,13 +6127,13 @@
         <v>1.79421578479</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.000147532101675</v>
+        <v>0.0001015402033639434</v>
       </c>
       <c r="R8" t="n">
-        <v>0.000109352157506</v>
+        <v>0.000290327040228</v>
       </c>
       <c r="S8" t="n">
-        <v>0.000132260124008</v>
+        <v>0.0001316615819033333</v>
       </c>
     </row>
     <row r="9">
@@ -6141,28 +6141,28 @@
         <v>0.08828828828828829</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1947315665625001</v>
+        <v>0.1916041646875001</v>
       </c>
       <c r="C9" t="n">
         <v>0.0680678</v>
       </c>
       <c r="D9" t="n">
-        <v>1.742</v>
+        <v>1.714023364457957</v>
       </c>
       <c r="E9" t="n">
         <v>111</v>
       </c>
       <c r="F9" t="n">
-        <v>470</v>
+        <v>363.3333333333333</v>
       </c>
       <c r="G9" t="n">
         <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666666</v>
       </c>
       <c r="J9" t="n">
         <v>0.627033168135</v>
@@ -6186,13 +6186,13 @@
         <v>3.10036272938</v>
       </c>
       <c r="Q9" t="n">
-        <v>9.55640674183e-06</v>
+        <v>5.368634719591668e-05</v>
       </c>
       <c r="R9" t="n">
-        <v>0.000652276805672</v>
+        <v>0.0002546124195180299</v>
       </c>
       <c r="S9" t="n">
-        <v>0.000138100486528</v>
+        <v>9.097378449035333e-05</v>
       </c>
     </row>
     <row r="10">
@@ -6200,28 +6200,28 @@
         <v>0.08828828828828829</v>
       </c>
       <c r="B10" t="n">
-        <v>0.1853493609375</v>
+        <v>0.1884767628125</v>
       </c>
       <c r="C10" t="n">
         <v>0.0680678</v>
       </c>
       <c r="D10" t="n">
-        <v>1.658070093373872</v>
+        <v>1.686046728915915</v>
       </c>
       <c r="E10" t="n">
         <v>111</v>
       </c>
       <c r="F10" t="n">
-        <v>150</v>
+        <v>256.6666666666667</v>
       </c>
       <c r="G10" t="n">
         <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="J10" t="n">
         <v>0.0455186698158</v>
@@ -6245,13 +6245,13 @@
         <v>7.67750313039</v>
       </c>
       <c r="Q10" t="n">
-        <v>3.97053317092e-06</v>
+        <v>5.832491027890001e-06</v>
       </c>
       <c r="R10" t="n">
-        <v>2.20829537609e-06</v>
+        <v>0.00021889779880806</v>
       </c>
       <c r="S10" t="n">
-        <v>2.56074293506e-06</v>
+        <v>4.785813998569333e-05</v>
       </c>
     </row>
     <row r="11">
@@ -6304,13 +6304,13 @@
         <v>7.67750313039</v>
       </c>
       <c r="Q11" t="n">
-        <v>3.97053317092e-06</v>
+        <v>2.6618924675988e-06</v>
       </c>
       <c r="R11" t="n">
-        <v>2.20829537609e-06</v>
+        <v>4.098808481666666e-06</v>
       </c>
       <c r="S11" t="n">
-        <v>2.91319049402e-06</v>
+        <v>2.88421131426e-06</v>
       </c>
     </row>
     <row r="12">
@@ -6363,13 +6363,13 @@
         <v>7.65825417199</v>
       </c>
       <c r="Q12" t="n">
-        <v>4.46110609564e-08</v>
+        <v>1.3532517642776e-06</v>
       </c>
       <c r="R12" t="n">
-        <v>7.879834692819999e-06</v>
+        <v>5.989321587243332e-06</v>
       </c>
       <c r="S12" t="n">
-        <v>3.1787005137e-06</v>
+        <v>2.567848931683334e-06</v>
       </c>
     </row>
     <row r="13">
@@ -6389,16 +6389,16 @@
         <v>111</v>
       </c>
       <c r="F13" t="n">
-        <v>150</v>
+        <v>156.6666666666667</v>
       </c>
       <c r="G13" t="n">
         <v>2</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666666</v>
       </c>
       <c r="J13" t="n">
         <v>0.0358572687372</v>
@@ -6422,13 +6422,13 @@
         <v>7.65825417199</v>
       </c>
       <c r="Q13" t="n">
-        <v>4.46110609564e-08</v>
+        <v>9.677176779176e-07</v>
       </c>
       <c r="R13" t="n">
-        <v>7.879834692819999e-06</v>
+        <v>5.265963934386399e-06</v>
       </c>
       <c r="S13" t="n">
-        <v>1.61165578733e-06</v>
+        <v>1.794573472471e-06</v>
       </c>
     </row>
     <row r="14">
@@ -6448,16 +6448,16 @@
         <v>111</v>
       </c>
       <c r="F14" t="n">
-        <v>170</v>
+        <v>163.3333333333333</v>
       </c>
       <c r="G14" t="n">
         <v>2</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -6481,13 +6481,13 @@
         <v>7.49234306734</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.81393091184e-06</v>
+        <v>1.8908242948788e-06</v>
       </c>
       <c r="R14" t="n">
-        <v>3.82224175192e-08</v>
+        <v>2.652093175952799e-06</v>
       </c>
       <c r="S14" t="n">
-        <v>5.93364116383e-07</v>
+        <v>1.117841906321e-06</v>
       </c>
     </row>
     <row r="15">
@@ -6540,13 +6540,13 @@
         <v>7.49234306734</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.81393091184e-06</v>
+        <v>2.107427761634333e-06</v>
       </c>
       <c r="R15" t="n">
-        <v>3.82224175192e-08</v>
+        <v>1.084584629019466e-06</v>
       </c>
       <c r="S15" t="n">
-        <v>1.14850581525e-06</v>
+        <v>1.143148809724333e-06</v>
       </c>
     </row>
     <row r="16">
@@ -6599,13 +6599,13 @@
         <v>8</v>
       </c>
       <c r="Q16" t="n">
-        <v>6.94421461223e-07</v>
+        <v>1.400924611428667e-06</v>
       </c>
       <c r="R16" t="n">
-        <v>3.17730905202e-06</v>
+        <v>2.130946840519733e-06</v>
       </c>
       <c r="S16" t="n">
-        <v>1.68757649754e-06</v>
+        <v>1.342360430723333e-06</v>
       </c>
     </row>
     <row r="17">
@@ -6625,16 +6625,16 @@
         <v>111</v>
       </c>
       <c r="F17" t="n">
-        <v>170</v>
+        <v>176.6666666666667</v>
       </c>
       <c r="G17" t="n">
         <v>2</v>
       </c>
       <c r="H17" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666666</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -6658,13 +6658,13 @@
         <v>8</v>
       </c>
       <c r="Q17" t="n">
-        <v>6.94421461223e-07</v>
+        <v>1.509166314138667e-06</v>
       </c>
       <c r="R17" t="n">
-        <v>3.17730905202e-06</v>
+        <v>2.521489322589999e-06</v>
       </c>
       <c r="S17" t="n">
-        <v>1.19099897938e-06</v>
+        <v>1.491395523966667e-06</v>
       </c>
     </row>
     <row r="18">
@@ -6684,16 +6684,16 @@
         <v>111</v>
       </c>
       <c r="F18" t="n">
-        <v>190</v>
+        <v>183.3333333333333</v>
       </c>
       <c r="G18" t="n">
         <v>2</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="I18" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -6717,13 +6717,13 @@
         <v>8</v>
       </c>
       <c r="Q18" t="n">
-        <v>3.13865601997e-06</v>
+        <v>2.323911167054333e-06</v>
       </c>
       <c r="R18" t="n">
-        <v>1.20984986373e-06</v>
+        <v>1.86566959316e-06</v>
       </c>
       <c r="S18" t="n">
-        <v>1.59561109498e-06</v>
+        <v>1.589327466863333e-06</v>
       </c>
     </row>
     <row r="19">
@@ -6776,13 +6776,13 @@
         <v>8</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.13865601997e-06</v>
+        <v>2.335928917589667e-06</v>
       </c>
       <c r="R19" t="n">
-        <v>1.20984986373e-06</v>
+        <v>2.02025526032e-06</v>
       </c>
       <c r="S19" t="n">
-        <v>1.98137232623e-06</v>
+        <v>1.823898223436666e-06</v>
       </c>
     </row>
     <row r="20">
@@ -6835,13 +6835,13 @@
         <v>7.73555332941</v>
       </c>
       <c r="Q20" t="n">
-        <v>7.30474712829e-07</v>
+        <v>1.533201815209334e-06</v>
       </c>
       <c r="R20" t="n">
-        <v>3.6410660535e-06</v>
+        <v>2.830660656909999e-06</v>
       </c>
       <c r="S20" t="n">
-        <v>1.8947112491e-06</v>
+        <v>1.729558852096666e-06</v>
       </c>
     </row>
     <row r="21">
@@ -6861,16 +6861,16 @@
         <v>111</v>
       </c>
       <c r="F21" t="n">
-        <v>190</v>
+        <v>196.6666666666667</v>
       </c>
       <c r="G21" t="n">
         <v>2</v>
       </c>
       <c r="H21" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666666</v>
       </c>
       <c r="J21" t="n">
         <v>0.000554279726612</v>
@@ -6894,13 +6894,13 @@
         <v>7.73555332941</v>
       </c>
       <c r="Q21" t="n">
-        <v>7.30474712829e-07</v>
+        <v>1.628164391086e-06</v>
       </c>
       <c r="R21" t="n">
-        <v>3.6410660535e-06</v>
+        <v>2.4827929965e-06</v>
       </c>
       <c r="S21" t="n">
-        <v>1.31259298096e-06</v>
+        <v>1.341670161860333e-06</v>
       </c>
     </row>
   </sheetData>
@@ -7036,16 +7036,16 @@
         <v>111</v>
       </c>
       <c r="F2" t="n">
-        <v>210</v>
+        <v>203.3333333333333</v>
       </c>
       <c r="G2" t="n">
         <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -7069,13 +7069,13 @@
         <v>7.14737409776</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.4235437476e-06</v>
+        <v>1.807784949289667e-06</v>
       </c>
       <c r="R2" t="n">
-        <v>1.662468825e-07</v>
+        <v>1.509648832656333e-06</v>
       </c>
       <c r="S2" t="n">
-        <v>8.17706255521e-07</v>
+        <v>1.023671309546666e-06</v>
       </c>
     </row>
     <row r="3">
@@ -7128,13 +7128,13 @@
         <v>6.66922153475</v>
       </c>
       <c r="Q3" t="n">
-        <v>1.26933638744e-06</v>
+        <v>1.606954097082e-06</v>
       </c>
       <c r="R3" t="n">
-        <v>7.21633561969e-07</v>
+        <v>7.966198421063327e-07</v>
       </c>
       <c r="S3" t="n">
-        <v>9.40714692159e-07</v>
+        <v>8.120006247143331e-07</v>
       </c>
     </row>
     <row r="4">
@@ -7187,13 +7187,13 @@
         <v>6.26729249847</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.27982156206e-07</v>
+        <v>5.084335666173334e-07</v>
       </c>
       <c r="R4" t="n">
-        <v>1.50197908185e-06</v>
+        <v>1.241863908556333e-06</v>
       </c>
       <c r="S4" t="n">
-        <v>6.77580926463e-07</v>
+        <v>6.736923866519999e-07</v>
       </c>
     </row>
     <row r="5">
@@ -7213,16 +7213,16 @@
         <v>111</v>
       </c>
       <c r="F5" t="n">
-        <v>210</v>
+        <v>216.6666666666667</v>
       </c>
       <c r="G5" t="n">
         <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666666</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -7246,13 +7246,13 @@
         <v>6.26729249847</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.27982156206e-07</v>
+        <v>1.360790283084e-06</v>
       </c>
       <c r="R5" t="n">
-        <v>1.50197908185e-06</v>
+        <v>1.172440888983666e-06</v>
       </c>
       <c r="S5" t="n">
-        <v>4.02781541334e-07</v>
+        <v>7.521117925889999e-07</v>
       </c>
     </row>
     <row r="6">
@@ -7272,16 +7272,16 @@
         <v>111</v>
       </c>
       <c r="F6" t="n">
-        <v>230</v>
+        <v>223.3333333333333</v>
       </c>
       <c r="G6" t="n">
         <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -7305,13 +7305,13 @@
         <v>8</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.82640653684e-06</v>
+        <v>1.359951591079334e-06</v>
       </c>
       <c r="R6" t="n">
-        <v>5.13364503251e-07</v>
+        <v>1.241394332790333e-06</v>
       </c>
       <c r="S6" t="n">
-        <v>1.17597290997e-06</v>
+        <v>8.847481771146665e-07</v>
       </c>
     </row>
     <row r="7">
@@ -7364,13 +7364,13 @@
         <v>7.99999914541</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.25466080192e-07</v>
+        <v>1.359112899074667e-06</v>
       </c>
       <c r="R7" t="n">
-        <v>1.70883941327e-06</v>
+        <v>1.310347776596999e-06</v>
       </c>
       <c r="S7" t="n">
-        <v>1.07549008004e-06</v>
+        <v>1.003426134478e-06</v>
       </c>
     </row>
     <row r="8">
@@ -7429,7 +7429,7 @@
         <v>1.70883941327e-06</v>
       </c>
       <c r="S8" t="n">
-        <v>7.58815413424e-07</v>
+        <v>7.588154134239999e-07</v>
       </c>
     </row>
     <row r="9">
@@ -7449,16 +7449,16 @@
         <v>111</v>
       </c>
       <c r="F9" t="n">
-        <v>230</v>
+        <v>236.6666666666667</v>
       </c>
       <c r="G9" t="n">
         <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666666</v>
       </c>
       <c r="J9" t="n">
         <v>1.96914418071e-06</v>
@@ -7482,13 +7482,13 @@
         <v>7.99999914541</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.25466080192e-07</v>
+        <v>1.592092491546666e-07</v>
       </c>
       <c r="R9" t="n">
-        <v>1.70883941327e-06</v>
+        <v>1.219014048463333e-06</v>
       </c>
       <c r="S9" t="n">
-        <v>4.42140746808e-07</v>
+        <v>4.792619775759999e-07</v>
       </c>
     </row>
     <row r="10">
@@ -7508,16 +7508,16 @@
         <v>111</v>
       </c>
       <c r="F10" t="n">
-        <v>250</v>
+        <v>243.3333333333333</v>
       </c>
       <c r="G10" t="n">
         <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -7541,13 +7541,13 @@
         <v>6.31127540732</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.2669558708e-07</v>
+        <v>1.929524181173333e-07</v>
       </c>
       <c r="R10" t="n">
-        <v>2.3936331885e-07</v>
+        <v>7.291886836566661e-07</v>
       </c>
       <c r="S10" t="n">
-        <v>2.36829772496e-07</v>
+        <v>3.044222484819998e-07</v>
       </c>
     </row>
     <row r="11">
@@ -7606,7 +7606,7 @@
         <v>2.3936331885e-07</v>
       </c>
       <c r="S11" t="n">
-        <v>2.34296226142e-07</v>
+        <v>2.342962261419999e-07</v>
       </c>
     </row>
     <row r="12">
@@ -7659,13 +7659,13 @@
         <v>6.31127540732</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.2669558708e-07</v>
+        <v>1.539315071334267e-07</v>
       </c>
       <c r="R12" t="n">
-        <v>2.3936331885e-07</v>
+        <v>3.849513435009994e-07</v>
       </c>
       <c r="S12" t="n">
-        <v>2.31762679788e-07</v>
+        <v>2.026690207609999e-07</v>
       </c>
     </row>
     <row r="13">
@@ -7685,16 +7685,16 @@
         <v>111</v>
       </c>
       <c r="F13" t="n">
-        <v>250</v>
+        <v>256.6666666666667</v>
       </c>
       <c r="G13" t="n">
         <v>2</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666666</v>
       </c>
       <c r="J13" t="n">
         <v>0.00699573013937</v>
@@ -7718,13 +7718,13 @@
         <v>6.19336003505</v>
       </c>
       <c r="Q13" t="n">
-        <v>8.403347240280001e-09</v>
+        <v>2.054540442960933e-07</v>
       </c>
       <c r="R13" t="n">
-        <v>6.76127392803e-07</v>
+        <v>4.137363925466661e-07</v>
       </c>
       <c r="S13" t="n">
-        <v>1.41948156353e-07</v>
+        <v>2.368460828813332e-07</v>
       </c>
     </row>
     <row r="14">
@@ -7744,16 +7744,16 @@
         <v>111</v>
       </c>
       <c r="F14" t="n">
-        <v>270</v>
+        <v>263.3333333333333</v>
       </c>
       <c r="G14" t="n">
         <v>2</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -7777,13 +7777,13 @@
         <v>8</v>
       </c>
       <c r="Q14" t="n">
-        <v>3.81263198568e-07</v>
+        <v>2.5697658145876e-07</v>
       </c>
       <c r="R14" t="n">
-        <v>3.25718465987e-07</v>
+        <v>4.425214415923327e-07</v>
       </c>
       <c r="S14" t="n">
-        <v>3.36827412503e-07</v>
+        <v>2.755706426249999e-07</v>
       </c>
     </row>
     <row r="15">
@@ -7842,7 +7842,7 @@
         <v>3.25718465987e-07</v>
       </c>
       <c r="S15" t="n">
-        <v>3.47936359019e-07</v>
+        <v>3.479363590189999e-07</v>
       </c>
     </row>
     <row r="16">
@@ -7901,7 +7901,7 @@
         <v>3.25718465987e-07</v>
       </c>
       <c r="S16" t="n">
-        <v>3.59045305535e-07</v>
+        <v>3.590453055353332e-07</v>
       </c>
     </row>
     <row r="17">
@@ -7921,16 +7921,16 @@
         <v>111</v>
       </c>
       <c r="F17" t="n">
-        <v>270</v>
+        <v>276.6666666666667</v>
       </c>
       <c r="G17" t="n">
         <v>2</v>
       </c>
       <c r="H17" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666666</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -7954,13 +7954,13 @@
         <v>8</v>
       </c>
       <c r="Q17" t="n">
-        <v>3.81263198568e-07</v>
+        <v>3.031727293582e-06</v>
       </c>
       <c r="R17" t="n">
-        <v>3.25718465987e-07</v>
+        <v>2.652612962779994e-07</v>
       </c>
       <c r="S17" t="n">
-        <v>3.70154252052e-07</v>
+        <v>8.370694065989999e-07</v>
       </c>
     </row>
     <row r="18">
@@ -7980,16 +7980,16 @@
         <v>111</v>
       </c>
       <c r="F18" t="n">
-        <v>290</v>
+        <v>283.3333333333333</v>
       </c>
       <c r="G18" t="n">
         <v>2</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="I18" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -8013,13 +8013,13 @@
         <v>7.99999244364</v>
       </c>
       <c r="Q18" t="n">
-        <v>8.33265548361e-06</v>
+        <v>3.415589929926e-06</v>
       </c>
       <c r="R18" t="n">
-        <v>1.4434695686e-07</v>
+        <v>8.416989695423327e-07</v>
       </c>
       <c r="S18" t="n">
-        <v>1.78200866221e-06</v>
+        <v>1.332774082924e-06</v>
       </c>
     </row>
     <row r="19">
@@ -8072,13 +8072,13 @@
         <v>7.71426437109</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.5328511076e-06</v>
+        <v>3.79945256627e-06</v>
       </c>
       <c r="R19" t="n">
-        <v>2.05503148578e-06</v>
+        <v>1.418136642806666e-06</v>
       </c>
       <c r="S19" t="n">
-        <v>1.84615933451e-06</v>
+        <v>1.789963751863333e-06</v>
       </c>
     </row>
     <row r="20">
@@ -8131,13 +8131,13 @@
         <v>7.71426437109</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.5328511076e-06</v>
+        <v>1.047304015881567e-06</v>
       </c>
       <c r="R20" t="n">
-        <v>2.05503148578e-06</v>
+        <v>3.100601277723333e-06</v>
       </c>
       <c r="S20" t="n">
-        <v>1.74172325887e-06</v>
+        <v>1.562399543886667e-06</v>
       </c>
     </row>
     <row r="21">
@@ -8157,16 +8157,16 @@
         <v>111</v>
       </c>
       <c r="F21" t="n">
-        <v>290</v>
+        <v>296.6666666666667</v>
       </c>
       <c r="G21" t="n">
         <v>2</v>
       </c>
       <c r="H21" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666666</v>
       </c>
       <c r="J21" t="n">
         <v>0.0122275877163</v>
@@ -8190,13 +8190,13 @@
         <v>8</v>
       </c>
       <c r="Q21" t="n">
-        <v>7.62098324447e-08</v>
+        <v>1.924935646288233e-06</v>
       </c>
       <c r="R21" t="n">
-        <v>5.19174086161e-06</v>
+        <v>3.305311998396666e-06</v>
       </c>
       <c r="S21" t="n">
-        <v>1.09931603828e-06</v>
+        <v>1.936506471716667e-06</v>
       </c>
     </row>
   </sheetData>
@@ -8332,16 +8332,16 @@
         <v>111</v>
       </c>
       <c r="F2" t="n">
-        <v>310</v>
+        <v>303.3333333333333</v>
       </c>
       <c r="G2" t="n">
         <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -8365,13 +8365,13 @@
         <v>8</v>
       </c>
       <c r="Q2" t="n">
-        <v>4.16574599882e-06</v>
+        <v>2.8025672766949e-06</v>
       </c>
       <c r="R2" t="n">
-        <v>2.6691636478e-06</v>
+        <v>3.510022719069999e-06</v>
       </c>
       <c r="S2" t="n">
-        <v>2.968480118e-06</v>
+        <v>2.445197581496667e-06</v>
       </c>
     </row>
     <row r="3">
@@ -8430,7 +8430,7 @@
         <v>2.6691636478e-06</v>
       </c>
       <c r="S3" t="n">
-        <v>3.26779658821e-06</v>
+        <v>3.267796588206666e-06</v>
       </c>
     </row>
     <row r="4">
@@ -8489,7 +8489,7 @@
         <v>2.6691636478e-06</v>
       </c>
       <c r="S4" t="n">
-        <v>3.56711305841e-06</v>
+        <v>3.567113058413333e-06</v>
       </c>
     </row>
     <row r="5">
@@ -8509,16 +8509,16 @@
         <v>111</v>
       </c>
       <c r="F5" t="n">
-        <v>310</v>
+        <v>316.6666666666667</v>
       </c>
       <c r="G5" t="n">
         <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666666</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -8542,13 +8542,13 @@
         <v>8</v>
       </c>
       <c r="Q5" t="n">
-        <v>4.16574599882e-06</v>
+        <v>3.87907613993e-06</v>
       </c>
       <c r="R5" t="n">
-        <v>2.6691636478e-06</v>
+        <v>1.877239048177666e-06</v>
       </c>
       <c r="S5" t="n">
-        <v>3.86642952862e-06</v>
+        <v>2.776467250202333e-06</v>
       </c>
     </row>
     <row r="6">
@@ -8568,16 +8568,16 @@
         <v>111</v>
       </c>
       <c r="F6" t="n">
-        <v>330</v>
+        <v>323.3333333333333</v>
       </c>
       <c r="G6" t="n">
         <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8601,13 +8601,13 @@
         <v>7.86128546365</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.30573642215e-06</v>
+        <v>3.59240628104e-06</v>
       </c>
       <c r="R6" t="n">
-        <v>2.93389848933e-07</v>
+        <v>1.085314448555332e-06</v>
       </c>
       <c r="S6" t="n">
-        <v>8.95859163577e-07</v>
+        <v>2.086872390139e-06</v>
       </c>
     </row>
     <row r="7">
@@ -8666,7 +8666,7 @@
         <v>2.93389848933e-07</v>
       </c>
       <c r="S7" t="n">
-        <v>1.49832847822e-06</v>
+        <v>1.498328478222333e-06</v>
       </c>
     </row>
     <row r="8">
@@ -8725,7 +8725,7 @@
         <v>2.93389848933e-07</v>
       </c>
       <c r="S8" t="n">
-        <v>2.10079779287e-06</v>
+        <v>2.100797792866666e-06</v>
       </c>
     </row>
     <row r="9">
@@ -8745,16 +8745,16 @@
         <v>111</v>
       </c>
       <c r="F9" t="n">
-        <v>330</v>
+        <v>336.6666666666667</v>
       </c>
       <c r="G9" t="n">
         <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666666</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -8778,13 +8778,13 @@
         <v>7.86128546365</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.30573642215e-06</v>
+        <v>1.174236798876667e-05</v>
       </c>
       <c r="R9" t="n">
-        <v>2.93389848933e-07</v>
+        <v>7.333377127286658e-07</v>
       </c>
       <c r="S9" t="n">
-        <v>2.70326710751e-06</v>
+        <v>3.939259292346667e-06</v>
       </c>
     </row>
     <row r="10">
@@ -8804,16 +8804,16 @@
         <v>111</v>
       </c>
       <c r="F10" t="n">
-        <v>350</v>
+        <v>343.3333333333333</v>
       </c>
       <c r="G10" t="n">
         <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -8837,13 +8837,13 @@
         <v>7.71153585165</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.8615631122e-05</v>
+        <v>1.065592226279153e-05</v>
       </c>
       <c r="R10" t="n">
-        <v>1.61323344032e-06</v>
+        <v>4.521719530184333e-06</v>
       </c>
       <c r="S10" t="n">
-        <v>7.01371297666e-06</v>
+        <v>5.576886987553334e-06</v>
       </c>
     </row>
     <row r="11">
@@ -8896,13 +8896,13 @@
         <v>7.99999421685</v>
       </c>
       <c r="Q11" t="n">
-        <v>4.63992442246e-08</v>
+        <v>9.569476536816402e-06</v>
       </c>
       <c r="R11" t="n">
-        <v>1.16585353013e-05</v>
+        <v>8.310101347639999e-06</v>
       </c>
       <c r="S11" t="n">
-        <v>7.01368087849e-06</v>
+        <v>6.239549174069999e-06</v>
       </c>
     </row>
     <row r="12">
@@ -8961,7 +8961,7 @@
         <v>1.16585353013e-05</v>
       </c>
       <c r="S12" t="n">
-        <v>4.69125366706e-06</v>
+        <v>4.691253667063333e-06</v>
       </c>
     </row>
     <row r="13">
@@ -8981,16 +8981,16 @@
         <v>111</v>
       </c>
       <c r="F13" t="n">
-        <v>350</v>
+        <v>356.6666666666667</v>
       </c>
       <c r="G13" t="n">
         <v>2</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666666</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -9014,13 +9014,13 @@
         <v>7.99999421685</v>
       </c>
       <c r="Q13" t="n">
-        <v>4.63992442246e-08</v>
+        <v>4.412194253949735e-06</v>
       </c>
       <c r="R13" t="n">
-        <v>1.16585353013e-05</v>
+        <v>1.032733212584e-05</v>
       </c>
       <c r="S13" t="n">
-        <v>2.36882645564e-06</v>
+        <v>5.273592532439999e-06</v>
       </c>
     </row>
     <row r="14">
@@ -9040,16 +9040,16 @@
         <v>111</v>
       </c>
       <c r="F14" t="n">
-        <v>370</v>
+        <v>363.3333333333333</v>
       </c>
       <c r="G14" t="n">
         <v>2</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="J14" t="n">
         <v>4.92374613525e-07</v>
@@ -9073,13 +9073,13 @@
         <v>7.93328298565</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.31437842734e-05</v>
+        <v>7.372201701914868e-06</v>
       </c>
       <c r="R14" t="n">
-        <v>7.66492577492e-06</v>
+        <v>9.544116715533331e-06</v>
       </c>
       <c r="S14" t="n">
-        <v>8.76069747462e-06</v>
+        <v>6.761808669246666e-06</v>
       </c>
     </row>
     <row r="15">
@@ -9132,13 +9132,13 @@
         <v>7.88957412387</v>
       </c>
       <c r="Q15" t="n">
-        <v>8.926421588120001e-06</v>
+        <v>7.360189525994234e-06</v>
       </c>
       <c r="R15" t="n">
-        <v>9.30888907038e-06</v>
+        <v>1.315437021856666e-05</v>
       </c>
       <c r="S15" t="n">
-        <v>9.15590207748e-06</v>
+        <v>8.972845168710001e-06</v>
       </c>
     </row>
     <row r="16">
@@ -9191,13 +9191,13 @@
         <v>8</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.03627164627e-08</v>
+        <v>2.982382340348468e-06</v>
       </c>
       <c r="R16" t="n">
-        <v>2.24892958104e-05</v>
+        <v>1.809582689706e-05</v>
       </c>
       <c r="S16" t="n">
-        <v>9.00193595403e-06</v>
+        <v>7.554662455586666e-06</v>
       </c>
     </row>
     <row r="17">
@@ -9217,16 +9217,16 @@
         <v>111</v>
       </c>
       <c r="F17" t="n">
-        <v>370</v>
+        <v>376.6666666666667</v>
       </c>
       <c r="G17" t="n">
         <v>2</v>
       </c>
       <c r="H17" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666666</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -9250,13 +9250,13 @@
         <v>8</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.03627164627e-08</v>
+        <v>1.263119901947513e-05</v>
       </c>
       <c r="R17" t="n">
-        <v>2.24892958104e-05</v>
+        <v>1.612256602453666e-05</v>
       </c>
       <c r="S17" t="n">
-        <v>4.50614933525e-06</v>
+        <v>7.931314925526667e-06</v>
       </c>
     </row>
     <row r="18">
@@ -9276,16 +9276,16 @@
         <v>111</v>
       </c>
       <c r="F18" t="n">
-        <v>390</v>
+        <v>383.3333333333333</v>
       </c>
       <c r="G18" t="n">
         <v>2</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="I18" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9309,13 +9309,13 @@
         <v>8</v>
       </c>
       <c r="Q18" t="n">
-        <v>3.78728716255e-05</v>
+        <v>2.525203532248757e-05</v>
       </c>
       <c r="R18" t="n">
-        <v>3.38910645281e-06</v>
+        <v>9.755836238673331e-06</v>
       </c>
       <c r="S18" t="n">
-        <v>1.02858594873e-05</v>
+        <v>1.065820711481667e-05</v>
       </c>
     </row>
     <row r="19">
@@ -9368,13 +9368,13 @@
         <v>8</v>
       </c>
       <c r="Q19" t="n">
-        <v>3.78728716255e-05</v>
+        <v>2.927307786793334e-05</v>
       </c>
       <c r="R19" t="n">
-        <v>3.38910645281e-06</v>
+        <v>9.539645619906664e-06</v>
       </c>
       <c r="S19" t="n">
-        <v>1.71826125219e-05</v>
+        <v>1.448295193416667e-05</v>
       </c>
     </row>
     <row r="20">
@@ -9427,13 +9427,13 @@
         <v>8</v>
       </c>
       <c r="Q20" t="n">
-        <v>1.20734903528e-05</v>
+        <v>2.067328411036667e-05</v>
       </c>
       <c r="R20" t="n">
-        <v>2.18407239541e-05</v>
+        <v>1.569018478700333e-05</v>
       </c>
       <c r="S20" t="n">
-        <v>1.59803837933e-05</v>
+        <v>1.57299777961e-05</v>
       </c>
     </row>
     <row r="21">
@@ -9453,16 +9453,16 @@
         <v>111</v>
       </c>
       <c r="F21" t="n">
-        <v>390</v>
+        <v>396.6666666666667</v>
       </c>
       <c r="G21" t="n">
         <v>2</v>
       </c>
       <c r="H21" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666666</v>
       </c>
       <c r="J21" t="n">
         <v>1.19209347949e-07</v>
@@ -9486,13 +9486,13 @@
         <v>8</v>
       </c>
       <c r="Q21" t="n">
-        <v>1.20734903528e-05</v>
+        <v>0.0001120549315745333</v>
       </c>
       <c r="R21" t="n">
-        <v>2.18407239541e-05</v>
+        <v>1.668239103358667e-05</v>
       </c>
       <c r="S21" t="n">
-        <v>1.40269370731e-05</v>
+        <v>3.2501154608e-05</v>
       </c>
     </row>
   </sheetData>
@@ -9628,16 +9628,16 @@
         <v>111</v>
       </c>
       <c r="F2" t="n">
-        <v>410</v>
+        <v>403.3333333333333</v>
       </c>
       <c r="G2" t="n">
         <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="J2" t="n">
         <v>0.0123277901574</v>
@@ -9661,13 +9661,13 @@
         <v>8</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.000312017814018</v>
+        <v>0.0002120363727962667</v>
       </c>
       <c r="R2" t="n">
-        <v>6.36572519256e-06</v>
+        <v>1.152405811307333e-05</v>
       </c>
       <c r="S2" t="n">
-        <v>6.74961429576e-05</v>
+        <v>7.004988025123333e-05</v>
       </c>
     </row>
     <row r="3">
@@ -9726,7 +9726,7 @@
         <v>6.36572519256e-06</v>
       </c>
       <c r="S3" t="n">
-        <v>0.000128626560723</v>
+        <v>0.0001286265607228667</v>
       </c>
     </row>
     <row r="4">
@@ -9779,13 +9779,13 @@
         <v>8</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.000312017814018</v>
+        <v>0.000275272341689</v>
       </c>
       <c r="R4" t="n">
-        <v>6.36572519256e-06</v>
+        <v>0.00011177583853604</v>
       </c>
       <c r="S4" t="n">
-        <v>0.000189756978488</v>
+        <v>0.0001814426232933333</v>
       </c>
     </row>
     <row r="5">
@@ -9805,16 +9805,16 @@
         <v>111</v>
       </c>
       <c r="F5" t="n">
-        <v>410</v>
+        <v>416.6666666666667</v>
       </c>
       <c r="G5" t="n">
         <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666666</v>
       </c>
       <c r="J5" t="n">
         <v>3.3075915149e-06</v>
@@ -9838,13 +9838,13 @@
         <v>8</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.000201781397031</v>
+        <v>0.0005306992196563333</v>
       </c>
       <c r="R5" t="n">
-        <v>0.000322596065223</v>
+        <v>0.0001129335072925967</v>
       </c>
       <c r="S5" t="n">
-        <v>0.000225944330669</v>
+        <v>0.0002130773279703334</v>
       </c>
     </row>
     <row r="6">
@@ -9864,16 +9864,16 @@
         <v>111</v>
       </c>
       <c r="F6" t="n">
-        <v>430</v>
+        <v>423.3333333333333</v>
       </c>
       <c r="G6" t="n">
         <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="J6" t="n">
         <v>0.009870061818569999</v>
@@ -9897,13 +9897,13 @@
         <v>8</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.00107829844792</v>
+        <v>0.0007129856092726667</v>
       </c>
       <c r="R6" t="n">
-        <v>9.83873146223e-06</v>
+        <v>0.0001474372128337433</v>
       </c>
       <c r="S6" t="n">
-        <v>0.000223530674754</v>
+        <v>0.0002863173012196667</v>
       </c>
     </row>
     <row r="7">
@@ -9956,13 +9956,13 @@
         <v>8</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.000858876982867</v>
+        <v>0.0009320174712180001</v>
       </c>
       <c r="R7" t="n">
-        <v>0.000109876841816</v>
+        <v>7.653080503140998e-05</v>
       </c>
       <c r="S7" t="n">
-        <v>0.000409476898236</v>
+        <v>0.0003974281664786666</v>
       </c>
     </row>
     <row r="8">
@@ -10015,13 +10015,13 @@
         <v>8</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.000858876982867</v>
+        <v>0.0008450435618243333</v>
       </c>
       <c r="R8" t="n">
-        <v>0.000109876841816</v>
+        <v>0.0001641247918376666</v>
       </c>
       <c r="S8" t="n">
-        <v>0.000559276926446</v>
+        <v>0.0005590597796163334</v>
       </c>
     </row>
     <row r="9">
@@ -10041,16 +10041,16 @@
         <v>111</v>
       </c>
       <c r="F9" t="n">
-        <v>430</v>
+        <v>436.6666666666667</v>
       </c>
       <c r="G9" t="n">
         <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666666</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -10074,13 +10074,13 @@
         <v>7.9999983468</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.000817376719739</v>
+        <v>0.001133708348528667</v>
       </c>
       <c r="R9" t="n">
-        <v>0.000272620691881</v>
+        <v>0.0001379245316513999</v>
       </c>
       <c r="S9" t="n">
-        <v>0.000708425514167</v>
+        <v>0.000545899186072</v>
       </c>
     </row>
     <row r="10">
@@ -10100,16 +10100,16 @@
         <v>111</v>
       </c>
       <c r="F10" t="n">
-        <v>450</v>
+        <v>443.3333333333333</v>
       </c>
       <c r="G10" t="n">
         <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="J10" t="n">
         <v>0.0163455582365</v>
@@ -10133,13 +10133,13 @@
         <v>7.9999968875</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.00172487134298</v>
+        <v>0.001345196027716333</v>
       </c>
       <c r="R10" t="n">
-        <v>3.12760612572e-05</v>
+        <v>0.0001490641146210666</v>
       </c>
       <c r="S10" t="n">
-        <v>0.000369995117603</v>
+        <v>0.0005872446647926668</v>
       </c>
     </row>
     <row r="11">
@@ -10192,13 +10192,13 @@
         <v>8</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.00149334002043</v>
+        <v>0.001570517127946667</v>
       </c>
       <c r="R11" t="n">
-        <v>0.000143295590725</v>
+        <v>0.0001059557475690666</v>
       </c>
       <c r="S11" t="n">
-        <v>0.000683313362608</v>
+        <v>0.000668876909587</v>
       </c>
     </row>
     <row r="12">
@@ -10257,7 +10257,7 @@
         <v>0.000143295590725</v>
       </c>
       <c r="S12" t="n">
-        <v>0.00095332224855</v>
+        <v>0.0009533222485493334</v>
       </c>
     </row>
     <row r="13">
@@ -10277,16 +10277,16 @@
         <v>111</v>
       </c>
       <c r="F13" t="n">
-        <v>450</v>
+        <v>456.6666666666667</v>
       </c>
       <c r="G13" t="n">
         <v>2</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666666</v>
       </c>
       <c r="J13" t="n">
         <v>0.00862734518327</v>
@@ -10310,13 +10310,13 @@
         <v>8</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.00149334002043</v>
+        <v>0.001035556126095333</v>
       </c>
       <c r="R13" t="n">
-        <v>0.000143295590725</v>
+        <v>0.000134270830016</v>
       </c>
       <c r="S13" t="n">
-        <v>0.00122333113449</v>
+        <v>0.0007645426991343333</v>
       </c>
     </row>
     <row r="14">
@@ -10336,16 +10336,16 @@
         <v>111</v>
       </c>
       <c r="F14" t="n">
-        <v>470</v>
+        <v>463.3333333333333</v>
       </c>
       <c r="G14" t="n">
         <v>2</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="J14" t="n">
         <v>1.26639944836</v>
@@ -10369,13 +10369,13 @@
         <v>3.02676388381</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.000119988337426</v>
+        <v>0.0005777722317606667</v>
       </c>
       <c r="R14" t="n">
-        <v>0.000116221308598</v>
+        <v>0.000125246069307</v>
       </c>
       <c r="S14" t="n">
-        <v>0.000116974714363</v>
+        <v>0.000486011322994</v>
       </c>
     </row>
     <row r="15">
@@ -10493,7 +10493,7 @@
         <v>0.000116221308598</v>
       </c>
       <c r="S16" t="n">
-        <v>0.000118481525895</v>
+        <v>0.0001184815258946667</v>
       </c>
     </row>
     <row r="17">
@@ -10501,28 +10501,28 @@
         <v>0.08828828828828829</v>
       </c>
       <c r="B17" t="n">
-        <v>0.1853493609375</v>
+        <v>0.1897613565625</v>
       </c>
       <c r="C17" t="n">
         <v>0.0680678</v>
       </c>
       <c r="D17" t="n">
-        <v>1.658070093373872</v>
+        <v>1.69753825210346</v>
       </c>
       <c r="E17" t="n">
         <v>111</v>
       </c>
       <c r="F17" t="n">
-        <v>470</v>
+        <v>363.3333333333333</v>
       </c>
       <c r="G17" t="n">
         <v>2</v>
       </c>
       <c r="H17" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666666</v>
       </c>
       <c r="J17" t="n">
         <v>1.26639944836</v>
@@ -10546,13 +10546,13 @@
         <v>3.02676388381</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.000119988337426</v>
+        <v>8.002530018351553e-05</v>
       </c>
       <c r="R17" t="n">
-        <v>0.000116221308598</v>
+        <v>7.825220578397331e-05</v>
       </c>
       <c r="S17" t="n">
-        <v>0.00011923493166</v>
+        <v>7.986250093981666e-05</v>
       </c>
     </row>
     <row r="18">
@@ -10560,28 +10560,28 @@
         <v>0.08828828828828829</v>
       </c>
       <c r="B18" t="n">
-        <v>0.1985853478125</v>
+        <v>0.1941733521875</v>
       </c>
       <c r="C18" t="n">
         <v>0.0680678</v>
       </c>
       <c r="D18" t="n">
-        <v>1.776474569562635</v>
+        <v>1.737006410833047</v>
       </c>
       <c r="E18" t="n">
         <v>111</v>
       </c>
       <c r="F18" t="n">
-        <v>150</v>
+        <v>256.6666666666667</v>
       </c>
       <c r="G18" t="n">
         <v>2</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="I18" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="J18" t="n">
         <v>0.0300887547451</v>
@@ -10605,13 +10605,13 @@
         <v>7.78993661189</v>
       </c>
       <c r="Q18" t="n">
-        <v>9.92256985466e-08</v>
+        <v>4.006226294103107e-05</v>
       </c>
       <c r="R18" t="n">
-        <v>2.31400015592e-06</v>
+        <v>4.028310296994665e-05</v>
       </c>
       <c r="S18" t="n">
-        <v>1.87104526445e-06</v>
+        <v>4.084468909914e-05</v>
       </c>
     </row>
     <row r="19">
@@ -10670,7 +10670,7 @@
         <v>2.31400015592e-06</v>
       </c>
       <c r="S19" t="n">
-        <v>1.42809037297e-06</v>
+        <v>1.428090372972333e-06</v>
       </c>
     </row>
     <row r="20">
@@ -10729,7 +10729,7 @@
         <v>2.31400015592e-06</v>
       </c>
       <c r="S20" t="n">
-        <v>9.851354814969999e-07</v>
+        <v>9.851354814963333e-07</v>
       </c>
     </row>
     <row r="21">
@@ -10749,16 +10749,16 @@
         <v>111</v>
       </c>
       <c r="F21" t="n">
-        <v>150</v>
+        <v>156.6666666666667</v>
       </c>
       <c r="G21" t="n">
         <v>2</v>
       </c>
       <c r="H21" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666666</v>
       </c>
       <c r="J21" t="n">
         <v>0.0300887547451</v>
@@ -10782,13 +10782,13 @@
         <v>7.78993661189</v>
       </c>
       <c r="Q21" t="n">
-        <v>9.92256985466e-08</v>
+        <v>1.240310739041067e-06</v>
       </c>
       <c r="R21" t="n">
-        <v>2.31400015592e-06</v>
+        <v>1.836419730784982e-06</v>
       </c>
       <c r="S21" t="n">
-        <v>5.42180590022e-07</v>
+        <v>9.789397799796667e-07</v>
       </c>
     </row>
   </sheetData>
@@ -10924,16 +10924,16 @@
         <v>111</v>
       </c>
       <c r="F2" t="n">
-        <v>170</v>
+        <v>163.3333333333333</v>
       </c>
       <c r="G2" t="n">
         <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -10957,13 +10957,13 @@
         <v>7.76209552495</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.52248082003e-06</v>
+        <v>2.381395779535533e-06</v>
       </c>
       <c r="R2" t="n">
-        <v>8.81258880515e-07</v>
+        <v>1.358839305649982e-06</v>
       </c>
       <c r="S2" t="n">
-        <v>1.40950326842e-06</v>
+        <v>1.296477171587333e-06</v>
       </c>
     </row>
     <row r="3">
@@ -11016,13 +11016,13 @@
         <v>7.76209552495</v>
       </c>
       <c r="Q3" t="n">
-        <v>3.52248082003e-06</v>
+        <v>2.836161566673333e-06</v>
       </c>
       <c r="R3" t="n">
-        <v>8.81258880515e-07</v>
+        <v>1.788685941463315e-06</v>
       </c>
       <c r="S3" t="n">
-        <v>1.93774765632e-06</v>
+        <v>1.888926928686667e-06</v>
       </c>
     </row>
     <row r="4">
@@ -11075,13 +11075,13 @@
         <v>7.99999075385</v>
       </c>
       <c r="Q4" t="n">
-        <v>1.46352305996e-06</v>
+        <v>2.149842313316666e-06</v>
       </c>
       <c r="R4" t="n">
-        <v>3.60354006336e-06</v>
+        <v>2.696113002411649e-06</v>
       </c>
       <c r="S4" t="n">
-        <v>2.31952986132e-06</v>
+        <v>2.049601326093333e-06</v>
       </c>
     </row>
     <row r="5">
@@ -11101,16 +11101,16 @@
         <v>111</v>
       </c>
       <c r="F5" t="n">
-        <v>170</v>
+        <v>176.6666666666667</v>
       </c>
       <c r="G5" t="n">
         <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666666</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -11134,13 +11134,13 @@
         <v>7.99999075385</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.46352305996e-06</v>
+        <v>1.084999818913667e-06</v>
       </c>
       <c r="R5" t="n">
-        <v>3.60354006336e-06</v>
+        <v>2.636440793265649e-06</v>
       </c>
       <c r="S5" t="n">
-        <v>1.89152646064e-06</v>
+        <v>1.612813597262e-06</v>
       </c>
     </row>
     <row r="6">
@@ -11160,16 +11160,16 @@
         <v>111</v>
       </c>
       <c r="F6" t="n">
-        <v>190</v>
+        <v>183.3333333333333</v>
       </c>
       <c r="G6" t="n">
         <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -11193,13 +11193,13 @@
         <v>7.48604850505</v>
       </c>
       <c r="Q6" t="n">
-        <v>3.27953336821e-07</v>
+        <v>7.064765778673333e-07</v>
       </c>
       <c r="R6" t="n">
-        <v>7.02242253077e-07</v>
+        <v>1.669341523171315e-06</v>
       </c>
       <c r="S6" t="n">
-        <v>6.27384469826e-07</v>
+        <v>1.023812539013333e-06</v>
       </c>
     </row>
     <row r="7">
@@ -11258,7 +11258,7 @@
         <v>7.02242253077e-07</v>
       </c>
       <c r="S7" t="n">
-        <v>5.52526686574e-07</v>
+        <v>5.525266865743334e-07</v>
       </c>
     </row>
     <row r="8">
@@ -11337,16 +11337,16 @@
         <v>111</v>
       </c>
       <c r="F9" t="n">
-        <v>190</v>
+        <v>196.6666666666667</v>
       </c>
       <c r="G9" t="n">
         <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666666</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -11370,13 +11370,13 @@
         <v>7.48604850505</v>
       </c>
       <c r="Q9" t="n">
-        <v>3.27953336821e-07</v>
+        <v>4.212175719333334e-07</v>
       </c>
       <c r="R9" t="n">
-        <v>7.02242253077e-07</v>
+        <v>4.959989758103154e-07</v>
       </c>
       <c r="S9" t="n">
-        <v>4.02811120072e-07</v>
+        <v>3.562797229493333e-07</v>
       </c>
     </row>
     <row r="10">
@@ -11396,16 +11396,16 @@
         <v>111</v>
       </c>
       <c r="F10" t="n">
-        <v>210</v>
+        <v>203.3333333333333</v>
       </c>
       <c r="G10" t="n">
         <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -11429,13 +11429,13 @@
         <v>7.557176894</v>
       </c>
       <c r="Q10" t="n">
-        <v>6.07746042158e-07</v>
+        <v>5.144818070456667e-07</v>
       </c>
       <c r="R10" t="n">
-        <v>8.3512421277e-08</v>
+        <v>2.897556985436488e-07</v>
       </c>
       <c r="S10" t="n">
-        <v>1.88359145453e-07</v>
+        <v>2.947920450513333e-07</v>
       </c>
     </row>
     <row r="11">
@@ -11494,7 +11494,7 @@
         <v>8.3512421277e-08</v>
       </c>
       <c r="S11" t="n">
-        <v>2.93205869629e-07</v>
+        <v>2.932058696293334e-07</v>
       </c>
     </row>
     <row r="12">
@@ -11547,13 +11547,13 @@
         <v>7.557176894</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.07746042158e-07</v>
+        <v>4.79446626659e-07</v>
       </c>
       <c r="R12" t="n">
-        <v>8.3512421277e-08</v>
+        <v>4.893297676013154e-07</v>
       </c>
       <c r="S12" t="n">
-        <v>3.98052593806e-07</v>
+        <v>3.765765306713333e-07</v>
       </c>
     </row>
     <row r="13">
@@ -11573,16 +11573,16 @@
         <v>111</v>
       </c>
       <c r="F13" t="n">
-        <v>210</v>
+        <v>216.6666666666667</v>
       </c>
       <c r="G13" t="n">
         <v>2</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666666</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -11606,13 +11606,13 @@
         <v>8</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.22847795661e-07</v>
+        <v>3.438686417093334e-07</v>
       </c>
       <c r="R13" t="n">
-        <v>1.30096446025e-06</v>
+        <v>6.241802556423153e-07</v>
       </c>
       <c r="S13" t="n">
-        <v>4.38471128579e-07</v>
+        <v>4.223924160556667e-07</v>
       </c>
     </row>
     <row r="14">
@@ -11632,16 +11632,16 @@
         <v>111</v>
       </c>
       <c r="F14" t="n">
-        <v>230</v>
+        <v>223.3333333333333</v>
       </c>
       <c r="G14" t="n">
         <v>2</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -11665,13 +11665,13 @@
         <v>8</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.01012087309e-07</v>
+        <v>2.082906567596667e-07</v>
       </c>
       <c r="R14" t="n">
-        <v>4.880638854e-07</v>
+        <v>7.590307436833154e-07</v>
       </c>
       <c r="S14" t="n">
-        <v>4.30653525782e-07</v>
+        <v>4.141226068416667e-07</v>
       </c>
     </row>
     <row r="15">
@@ -11730,7 +11730,7 @@
         <v>4.880638854e-07</v>
       </c>
       <c r="S15" t="n">
-        <v>3.73243166164e-07</v>
+        <v>3.732431661636667e-07</v>
       </c>
     </row>
     <row r="16">
@@ -11789,7 +11789,7 @@
         <v>4.880638854e-07</v>
       </c>
       <c r="S16" t="n">
-        <v>3.15832806545e-07</v>
+        <v>3.158328065453333e-07</v>
       </c>
     </row>
     <row r="17">
@@ -11809,16 +11809,16 @@
         <v>111</v>
       </c>
       <c r="F17" t="n">
-        <v>230</v>
+        <v>236.6666666666667</v>
       </c>
       <c r="G17" t="n">
         <v>2</v>
       </c>
       <c r="H17" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666666</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -11842,13 +11842,13 @@
         <v>8</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.01012087309e-07</v>
+        <v>1.621052791262667e-07</v>
       </c>
       <c r="R17" t="n">
-        <v>4.880638854e-07</v>
+        <v>4.869892883579821e-07</v>
       </c>
       <c r="S17" t="n">
-        <v>2.58422446927e-07</v>
+        <v>3.263285538143333e-07</v>
       </c>
     </row>
     <row r="18">
@@ -11868,16 +11868,16 @@
         <v>111</v>
       </c>
       <c r="F18" t="n">
-        <v>250</v>
+        <v>243.3333333333333</v>
       </c>
       <c r="G18" t="n">
         <v>2</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="I18" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -11901,13 +11901,13 @@
         <v>7.61783522971</v>
       </c>
       <c r="Q18" t="n">
-        <v>8.429166276080001e-08</v>
+        <v>1.231984709435333e-07</v>
       </c>
       <c r="R18" t="n">
-        <v>4.84840094274e-07</v>
+        <v>4.859146913159821e-07</v>
       </c>
       <c r="S18" t="n">
-        <v>4.04730407971e-07</v>
+        <v>3.292578588556667e-07</v>
       </c>
     </row>
     <row r="19">
@@ -11960,13 +11960,13 @@
         <v>7.61783522971</v>
       </c>
       <c r="Q19" t="n">
-        <v>8.429166276080001e-08</v>
+        <v>8.404931017836668e-08</v>
       </c>
       <c r="R19" t="n">
-        <v>4.84840094274e-07</v>
+        <v>4.850440542803154e-07</v>
       </c>
       <c r="S19" t="n">
-        <v>3.24620721669e-07</v>
+        <v>3.245568941216666e-07</v>
       </c>
     </row>
     <row r="20">
@@ -12019,13 +12019,13 @@
         <v>7.6178376108</v>
       </c>
       <c r="Q20" t="n">
-        <v>8.35646050135e-08</v>
+        <v>8.380695759593333e-08</v>
       </c>
       <c r="R20" t="n">
-        <v>4.85451974293e-07</v>
+        <v>4.852480142866487e-07</v>
       </c>
       <c r="S20" t="n">
-        <v>2.44319552725e-07</v>
+        <v>2.442941177543333e-07</v>
       </c>
     </row>
     <row r="21">
@@ -12045,16 +12045,16 @@
         <v>111</v>
       </c>
       <c r="F21" t="n">
-        <v>250</v>
+        <v>256.6666666666667</v>
       </c>
       <c r="G21" t="n">
         <v>2</v>
       </c>
       <c r="H21" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666666</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -12078,13 +12078,13 @@
         <v>7.6178376108</v>
       </c>
       <c r="Q21" t="n">
-        <v>8.35646050135e-08</v>
+        <v>6.258421281216668e-08</v>
       </c>
       <c r="R21" t="n">
-        <v>4.85451974293e-07</v>
+        <v>7.239939223553154e-07</v>
       </c>
       <c r="S21" t="n">
-        <v>1.63942078869e-07</v>
+        <v>4.57749524019e-07</v>
       </c>
     </row>
   </sheetData>
@@ -12220,16 +12220,16 @@
         <v>111</v>
       </c>
       <c r="F2" t="n">
-        <v>270</v>
+        <v>263.3333333333333</v>
       </c>
       <c r="G2" t="n">
         <v>2</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="I2" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="J2" t="n">
         <v>1.71331644094e-06</v>
@@ -12253,13 +12253,13 @@
         <v>7.70302193122</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.06234284095e-08</v>
+        <v>4.160382061083333e-08</v>
       </c>
       <c r="R2" t="n">
-        <v>1.20107781848e-06</v>
+        <v>9.625358704176489e-07</v>
       </c>
       <c r="S2" t="n">
-        <v>9.64986940463e-07</v>
+        <v>6.192750272606666e-07</v>
       </c>
     </row>
     <row r="3">
@@ -12318,7 +12318,7 @@
         <v>1.20107781848e-06</v>
       </c>
       <c r="S3" t="n">
-        <v>7.2889606245e-07</v>
+        <v>7.288960624496666e-07</v>
       </c>
     </row>
     <row r="4">
@@ -12377,7 +12377,7 @@
         <v>1.20107781848e-06</v>
       </c>
       <c r="S4" t="n">
-        <v>4.92805184436e-07</v>
+        <v>4.928051844363334e-07</v>
       </c>
     </row>
     <row r="5">
@@ -12397,16 +12397,16 @@
         <v>111</v>
       </c>
       <c r="F5" t="n">
-        <v>270</v>
+        <v>276.6666666666667</v>
       </c>
       <c r="G5" t="n">
         <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666666</v>
       </c>
       <c r="J5" t="n">
         <v>1.71331644094e-06</v>
@@ -12430,13 +12430,13 @@
         <v>7.70302193122</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.06234284095e-08</v>
+        <v>2.330088212599667e-06</v>
       </c>
       <c r="R5" t="n">
-        <v>1.20107781848e-06</v>
+        <v>8.752790245323155e-07</v>
       </c>
       <c r="S5" t="n">
-        <v>2.56714306423e-07</v>
+        <v>7.727560654530001e-07</v>
       </c>
     </row>
     <row r="6">
@@ -12456,16 +12456,16 @@
         <v>111</v>
       </c>
       <c r="F6" t="n">
-        <v>290</v>
+        <v>283.3333333333333</v>
       </c>
       <c r="G6" t="n">
         <v>2</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -12489,13 +12489,13 @@
         <v>7.39867659024</v>
       </c>
       <c r="Q6" t="n">
-        <v>6.94901778098e-06</v>
+        <v>2.699698481323167e-06</v>
       </c>
       <c r="R6" t="n">
-        <v>2.23681436637e-07</v>
+        <v>1.661543995378982e-06</v>
       </c>
       <c r="S6" t="n">
-        <v>1.5687487055e-06</v>
+        <v>1.471056114787667e-06</v>
       </c>
     </row>
     <row r="7">
@@ -12548,13 +12548,13 @@
         <v>7.85327357519</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.12945423458e-06</v>
+        <v>3.069308750046666e-06</v>
       </c>
       <c r="R7" t="n">
-        <v>3.55987273102e-06</v>
+        <v>2.447808966225649e-06</v>
       </c>
       <c r="S7" t="n">
-        <v>2.58770533244e-06</v>
+        <v>2.0860252237e-06</v>
       </c>
     </row>
     <row r="8">
@@ -12613,7 +12613,7 @@
         <v>3.55987273102e-06</v>
       </c>
       <c r="S8" t="n">
-        <v>2.10162163316e-06</v>
+        <v>2.101621633156666e-06</v>
       </c>
     </row>
     <row r="9">
@@ -12633,16 +12633,16 @@
         <v>111</v>
       </c>
       <c r="F9" t="n">
-        <v>290</v>
+        <v>296.6666666666667</v>
       </c>
       <c r="G9" t="n">
         <v>2</v>
       </c>
       <c r="H9" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666666</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -12666,13 +12666,13 @@
         <v>7.85327357519</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.12945423458e-06</v>
+        <v>1.21215885825e-06</v>
       </c>
       <c r="R9" t="n">
-        <v>3.55987273102e-06</v>
+        <v>3.257706349743315e-06</v>
       </c>
       <c r="S9" t="n">
-        <v>1.61553793387e-06</v>
+        <v>2.038457352633333e-06</v>
       </c>
     </row>
     <row r="10">
@@ -12692,16 +12692,16 @@
         <v>111</v>
       </c>
       <c r="F10" t="n">
-        <v>310</v>
+        <v>303.3333333333333</v>
       </c>
       <c r="G10" t="n">
         <v>2</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -12725,13 +12725,13 @@
         <v>8</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.37756810559e-06</v>
+        <v>1.29486348192e-06</v>
       </c>
       <c r="R10" t="n">
-        <v>2.65337358719e-06</v>
+        <v>2.955539968466649e-06</v>
       </c>
       <c r="S10" t="n">
-        <v>2.39821249087e-06</v>
+        <v>2.052267273096667e-06</v>
       </c>
     </row>
     <row r="11">
@@ -12869,16 +12869,16 @@
         <v>111</v>
       </c>
       <c r="F13" t="n">
-        <v>310</v>
+        <v>316.6666666666667</v>
       </c>
       <c r="G13" t="n">
         <v>2</v>
       </c>
       <c r="H13" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666666</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -12902,13 +12902,13 @@
         <v>8</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.37756810559e-06</v>
+        <v>4.310897552693334e-06</v>
       </c>
       <c r="R13" t="n">
-        <v>2.65337358719e-06</v>
+        <v>2.017905411950982e-06</v>
       </c>
       <c r="S13" t="n">
-        <v>1.63272920191e-06</v>
+        <v>2.051235346236667e-06</v>
       </c>
     </row>
     <row r="14">
@@ -12928,16 +12928,16 @@
         <v>111</v>
       </c>
       <c r="F14" t="n">
-        <v>330</v>
+        <v>323.3333333333333</v>
       </c>
       <c r="G14" t="n">
         <v>2</v>
       </c>
       <c r="H14" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="J14" t="n">
         <v>9.67468749891e-07</v>
@@ -12961,13 +12961,13 @@
         <v>8</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.01775564469e-05</v>
+        <v>4.75143167543e-06</v>
       </c>
       <c r="R14" t="n">
-        <v>7.46969061473e-07</v>
+        <v>2.660152777870982e-06</v>
       </c>
       <c r="S14" t="n">
-        <v>2.63308653857e-06</v>
+        <v>2.697851113656667e-06</v>
       </c>
     </row>
     <row r="15">
@@ -13020,13 +13020,13 @@
         <v>7.69038088926</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.6991704738e-06</v>
+        <v>5.191965798166667e-06</v>
       </c>
       <c r="R15" t="n">
-        <v>4.58011568495e-06</v>
+        <v>3.302400143790982e-06</v>
       </c>
       <c r="S15" t="n">
-        <v>3.82773760049e-06</v>
+        <v>3.30412423244e-06</v>
       </c>
     </row>
     <row r="16">
@@ -13105,16 +13105,16 @@
         <v>111</v>
       </c>
       <c r="F17" t="n">
-        <v>330</v>
+        <v>336.6666666666667</v>
       </c>
       <c r="G17" t="n">
         <v>2</v>
       </c>
       <c r="H17" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666666</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -13138,13 +13138,13 @@
         <v>7.69038088926</v>
       </c>
       <c r="Q17" t="n">
-        <v>2.6991704738e-06</v>
+        <v>5.01177736423e-06</v>
       </c>
       <c r="R17" t="n">
-        <v>4.58011568495e-06</v>
+        <v>4.566898144663316e-06</v>
       </c>
       <c r="S17" t="n">
-        <v>3.07535951603e-06</v>
+        <v>4.028892251526667e-06</v>
       </c>
     </row>
     <row r="18">
@@ -13164,16 +13164,16 @@
         <v>111</v>
       </c>
       <c r="F18" t="n">
-        <v>350</v>
+        <v>343.3333333333333</v>
       </c>
       <c r="G18" t="n">
         <v>2</v>
       </c>
       <c r="H18" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="I18" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -13197,13 +13197,13 @@
         <v>7.82856021406</v>
       </c>
       <c r="Q18" t="n">
-        <v>9.63699114509e-06</v>
+        <v>5.018967822236667e-06</v>
       </c>
       <c r="R18" t="n">
-        <v>4.54046306409e-06</v>
+        <v>5.796034367266649e-06</v>
       </c>
       <c r="S18" t="n">
-        <v>5.55976868029e-06</v>
+        <v>4.8946465157e-06</v>
       </c>
     </row>
     <row r="19">
@@ -13256,13 +13256,13 @@
         <v>7.89172684536</v>
       </c>
       <c r="Q19" t="n">
-        <v>2.72074184782e-06</v>
+        <v>5.026158280243334e-06</v>
       </c>
       <c r="R19" t="n">
-        <v>8.267524352760001e-06</v>
+        <v>7.025170589869983e-06</v>
       </c>
       <c r="S19" t="n">
-        <v>6.04881135078e-06</v>
+        <v>5.516011626953333e-06</v>
       </c>
     </row>
     <row r="20">
@@ -13321,7 +13321,7 @@
         <v>8.267524352760001e-06</v>
       </c>
       <c r="S20" t="n">
-        <v>4.93945484979e-06</v>
+        <v>4.939454849793333e-06</v>
       </c>
     </row>
     <row r="21">
@@ -13341,16 +13341,16 @@
         <v>111</v>
       </c>
       <c r="F21" t="n">
-        <v>350</v>
+        <v>356.6666666666667</v>
       </c>
       <c r="G21" t="n">
         <v>2</v>
       </c>
       <c r="H21" t="n">
-        <v>0.8</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2</v>
+        <v>0.4666666666666666</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -13374,13 +13374,13 @@
         <v>7.89172684536</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.72074184782e-06</v>
+        <v>1.499243951444667e-05</v>
       </c>
       <c r="R21" t="n">
-        <v>8.267524352760001e-06</v>
+        <v>8.908043097906649e-06</v>
       </c>
       <c r="S21" t="n">
-        <v>3.83009834881e-06</v>
+        <v>8.275994879566667e-06</v>
       </c>
     </row>
   </sheetData>
